--- a/misc/tables_and_other/ML_model_performance.xlsx
+++ b/misc/tables_and_other/ML_model_performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/pwernette_usgs_gov/Documents/GitHub/point_cloud_vegetation_filtering/tables_and_other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/pwernette_usgs_gov/Documents/GitHub/point_cloud_vegetation_filtering/misc/tables_and_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6573A2DD-374E-4480-96BF-9271758BD52C}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0B83CEC-59A9-4C9E-B1BA-7ACC5607A323}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
@@ -44893,8 +44893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9EEADE-EB92-49D2-AC21-19FD28E12729}">
   <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48612,8 +48612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BD5609-9B8B-4518-8E54-BE8192B1625C}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/misc/tables_and_other/ML_model_performance.xlsx
+++ b/misc/tables_and_other/ML_model_performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/pwernette_usgs_gov/Documents/GitHub/point_cloud_vegetation_filtering/misc/tables_and_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0B83CEC-59A9-4C9E-B1BA-7ACC5607A323}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD01CF8C-7B0E-41FC-A8BC-D8C4A88E7CA7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="computing_cloud_metrics" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
   <si>
     <t>Epochs</t>
   </si>
@@ -208,18 +209,6 @@
     <t>cKDTree; query_ball_point; XYZ sd combined; r=0.10m</t>
   </si>
   <si>
-    <t>model_xyzrgb_8_8_8</t>
-  </si>
-  <si>
-    <t>model_xyzrgb_16_16_16</t>
-  </si>
-  <si>
-    <t>model_sdrgb_8_8_8</t>
-  </si>
-  <si>
-    <t>model_sdrgb_16_16_16</t>
-  </si>
-  <si>
     <t>CloudCompare CANUPO classifier</t>
   </si>
   <si>
@@ -248,6 +237,36 @@
   </si>
   <si>
     <t>Fisher Discriminany Ratio:</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>nodes per layer</t>
+  </si>
+  <si>
+    <t>total nodes</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>xyzrgb_8_8_8</t>
+  </si>
+  <si>
+    <t>xyzrgb_16_16_16</t>
+  </si>
+  <si>
+    <t>sdrgb_8_8_8</t>
+  </si>
+  <si>
+    <t>sdrgb_16_16_16</t>
+  </si>
+  <si>
+    <t>Tunable Parameters</t>
   </si>
 </sst>
 </file>
@@ -323,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -420,6 +439,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -427,7 +468,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -479,11 +520,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3954,10 +4031,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis_UPDATED_functions!$AA$10:$AA$44</c:f>
+              <c:f>analysis_UPDATED_functions!$AA$10:$AA$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2495</c:v>
                 </c:pt>
@@ -4053,10 +4130,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis_UPDATED_functions!$Y$10:$Y$44</c:f>
+              <c:f>analysis_UPDATED_functions!$Y$10:$Y$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.9042</c:v>
                 </c:pt>
@@ -6221,10 +6298,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis_UPDATED_functions!$AB$10:$AB$44</c:f>
+              <c:f>analysis_UPDATED_functions!$AB$10:$AB$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
@@ -6320,10 +6397,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis_UPDATED_functions!$Y$10:$Y$44</c:f>
+              <c:f>analysis_UPDATED_functions!$Y$10:$Y$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.9042</c:v>
                 </c:pt>
@@ -7499,10 +7576,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis_UPDATED_functions!$F$10:$F$44</c:f>
+              <c:f>analysis_UPDATED_functions!$F$10:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>545</c:v>
                 </c:pt>
@@ -7610,10 +7687,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis_UPDATED_functions!$D$10:$D$44</c:f>
+              <c:f>analysis_UPDATED_functions!$D$10:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.91479999999999995</c:v>
                 </c:pt>
@@ -7715,6 +7792,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.95250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0000">
+                  <c:v>0.90956470588235305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10400,10 +10480,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis_UPDATED_functions!$F$10:$F$44</c:f>
+              <c:f>analysis_UPDATED_functions!$F$10:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>545</c:v>
                 </c:pt>
@@ -10511,10 +10591,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis_UPDATED_functions!$D$10:$D$44</c:f>
+              <c:f>analysis_UPDATED_functions!$D$10:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.91479999999999995</c:v>
                 </c:pt>
@@ -10616,6 +10696,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.95250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0000">
+                  <c:v>0.90956470588235305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14257,6 +14340,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -14498,9 +14582,21 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6717948562881253"/>
+          <c:y val="0.48487931704107207"/>
+          <c:w val="0.23603924509436319"/>
+          <c:h val="0.37111475580161341"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -17216,6 +17312,1908 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>train_epochs=100;  batch=1000;  patience=5;  min_delta=0.001</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RGB only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$10:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91479999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-694B-4771-8070-1419622519A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RGB + Simple Indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$16:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-694B-4771-8070-1419622519A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RGB + All Indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$22:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94169999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-694B-4771-8070-1419622519A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375080944"/>
+        <c:axId val="375083024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375080944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Number of Tunable Parameters</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375083024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375083024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375080944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65387370933472022"/>
+          <c:y val="0.66631266991720284"/>
+          <c:w val="0.23603924509436319"/>
+          <c:h val="0.1590491810578343"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$A$10:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$10:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176321</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69D9-4163-A03A-D77DC9A03363}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="574714800"/>
+        <c:axId val="574717096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="574714800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574717096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="574717096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574714800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>train_epochs=100;  batch=1000;  patience=5;  min_delta=0.001</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 layers (8 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$34:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$34:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FB7-433D-A885-E20BA5C53264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 layers (8 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$37:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6FB7-433D-A885-E20BA5C53264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 layers (16 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$28:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$28:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6FB7-433D-A885-E20BA5C53264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3 layers (16 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$31:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$31:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6FB7-433D-A885-E20BA5C53264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375080944"/>
+        <c:axId val="375083024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375080944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Number of Tunable Parameters</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375083024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375083024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375080944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6980881422080305"/>
+          <c:y val="0.62723771215685686"/>
+          <c:w val="0.21742645072591732"/>
+          <c:h val="0.2120655747437791"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -17686,7 +19684,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -23758,6 +25756,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -36899,6 +39017,1554 @@
 </file>
 
 <file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -40975,13 +44641,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41013,13 +44679,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41051,13 +44717,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41089,13 +44755,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41127,13 +44793,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41165,13 +44831,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41203,13 +44869,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41241,13 +44907,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41279,13 +44945,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41317,13 +44983,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41355,13 +45021,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41393,13 +45059,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41431,13 +45097,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41469,13 +45135,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41507,13 +45173,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41545,13 +45211,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41583,13 +45249,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41621,13 +45287,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41650,6 +45316,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC78E882-03C0-4FB9-B321-E163E48ED154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FB14F5-2713-4475-94A5-F116619AC187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>929640</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500DFEC4-71B6-45F8-BBEF-C4E1B5616859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -42036,8 +45814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6A66E-88A0-4AD5-8234-0F09C8AD5240}">
   <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42076,21 +45854,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="A1" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="42">
         <v>0.88724999999999998</v>
       </c>
@@ -42101,11 +45879,11 @@
       <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="42">
         <v>2.8186100000000001</v>
       </c>
@@ -42117,26 +45895,26 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -42164,7 +45942,7 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -42194,23 +45972,23 @@
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
       <c r="W8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AE8" s="46" t="s">
+      <c r="AE8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -42319,15 +46097,15 @@
         <v>81</v>
       </c>
       <c r="I10" s="6" t="str">
-        <f t="shared" ref="I10:I39" si="5">AD10</f>
-        <v>model_rgb_16</v>
-      </c>
-      <c r="R10" s="45" t="s">
+        <f>SUBSTITUTE(AD10,"model_","")</f>
+        <v>rgb_16</v>
+      </c>
+      <c r="R10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
       <c r="W10" s="18">
         <v>1</v>
       </c>
@@ -42352,12 +46130,12 @@
       <c r="AD10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AM10" s="46" t="s">
+      <c r="AM10" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
@@ -42382,8 +46160,8 @@
         <v>641</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_16_32</v>
+        <f t="shared" ref="I11:I21" si="5">SUBSTITUTE(AD11,"model_","")</f>
+        <v>rgb_16_32</v>
       </c>
       <c r="Q11" t="s">
         <v>41</v>
@@ -42464,7 +46242,7 @@
       </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_16_32_64</v>
+        <v>rgb_16_32_64</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -42553,7 +46331,7 @@
       </c>
       <c r="I13" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_16_32_64_128</v>
+        <v>rgb_16_32_64_128</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -42642,7 +46420,7 @@
       </c>
       <c r="I14" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_16_32_64_128_256</v>
+        <v>rgb_16_32_64_128_256</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -42731,7 +46509,7 @@
       </c>
       <c r="I15" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_16_32_64_128_256_512</v>
+        <v>rgb_16_32_64_128_256_512</v>
       </c>
       <c r="J15" s="1">
         <f>AVERAGE(C10:C15)</f>
@@ -42860,7 +46638,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_simple_16</v>
+        <v>rgb_simple_16</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
@@ -42959,7 +46737,7 @@
       </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_32</v>
+        <v>rgb_simple_16_32</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
@@ -43058,7 +46836,7 @@
       </c>
       <c r="I18" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_32_64</v>
+        <v>rgb_simple_16_32_64</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
@@ -43119,7 +46897,7 @@
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_32_64_128</v>
+        <v>rgb_simple_16_32_64_128</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
@@ -43218,7 +46996,7 @@
       </c>
       <c r="I20" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_32_64_128_256</v>
+        <v>rgb_simple_16_32_64_128_256</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
@@ -43317,7 +47095,7 @@
       </c>
       <c r="I21" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_32_64_128_256_512</v>
+        <v>rgb_simple_16_32_64_128_256_512</v>
       </c>
       <c r="J21" s="1">
         <f>AVERAGE(C16:C21)</f>
@@ -43445,7 +47223,7 @@
         <v>241</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I22:I27" si="31">AD22</f>
         <v>all_16</v>
       </c>
       <c r="J22" s="1"/>
@@ -43502,7 +47280,7 @@
         <v>801</v>
       </c>
       <c r="I23" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>all_16_32</v>
       </c>
       <c r="J23" s="1"/>
@@ -43559,7 +47337,7 @@
         <v>2945</v>
       </c>
       <c r="I24" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>all_16_32_64</v>
       </c>
       <c r="J24" s="1"/>
@@ -43616,7 +47394,7 @@
         <v>11329</v>
       </c>
       <c r="I25" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>all_16_32_64_128</v>
       </c>
       <c r="J25" s="1"/>
@@ -43673,7 +47451,7 @@
         <v>44481</v>
       </c>
       <c r="I26" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>all_16_32_64_128_256</v>
       </c>
       <c r="J26" s="1"/>
@@ -43730,7 +47508,7 @@
         <v>176321</v>
       </c>
       <c r="I27" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>all_16_32_64_128_256_512</v>
       </c>
       <c r="J27" s="1">
@@ -43738,15 +47516,15 @@
         <v>9.5</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27" si="31">AVERAGE(D22:D27)</f>
+        <f t="shared" ref="K27" si="32">AVERAGE(D22:D27)</f>
         <v>0.93948333333333334</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" ref="L27" si="32">AVERAGE(E22:E27)</f>
+        <f t="shared" ref="L27" si="33">AVERAGE(E22:E27)</f>
         <v>0.94015000000000004</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" ref="M27" si="33">AVERAGE(F22:F27)</f>
+        <f t="shared" ref="M27" si="34">AVERAGE(F22:F27)</f>
         <v>1454.8333333333333</v>
       </c>
       <c r="N27" s="3">
@@ -43782,15 +47560,15 @@
         <v>9.1666666666666661</v>
       </c>
       <c r="AF27" s="25">
-        <f t="shared" ref="AF27:AH27" si="34">AVERAGE(Y22:Y27)</f>
+        <f t="shared" ref="AF27:AH27" si="35">AVERAGE(Y22:Y27)</f>
         <v>0.93640000000000001</v>
       </c>
       <c r="AG27" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.93689999999999996</v>
       </c>
       <c r="AH27" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3208.6666666666665</v>
       </c>
       <c r="AI27" s="26">
@@ -43821,8 +47599,8 @@
         <v>353</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_16_16</v>
+        <f>SUBSTITUTE(AD28,"model_","")</f>
+        <v>rgb_16_16</v>
       </c>
       <c r="J28" s="1"/>
       <c r="M28" s="3"/>
@@ -43878,8 +47656,8 @@
         <v>417</v>
       </c>
       <c r="I29" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_16</v>
+        <f t="shared" ref="I29:I39" si="36">SUBSTITUTE(AD29,"model_","")</f>
+        <v>rgb_simple_16_16</v>
       </c>
       <c r="J29" s="1"/>
       <c r="M29" s="3"/>
@@ -43935,27 +47713,27 @@
         <v>513</v>
       </c>
       <c r="I30" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>model_all_16_16</v>
+        <f t="shared" si="36"/>
+        <v>all_16_16</v>
       </c>
       <c r="J30" s="1">
         <f>AVERAGE(C28:C30)</f>
         <v>7.333333333333333</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" ref="K30" si="35">AVERAGE(D28:D30)</f>
+        <f t="shared" ref="K30" si="37">AVERAGE(D28:D30)</f>
         <v>0.93786666666666674</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" ref="L30" si="36">AVERAGE(E28:E30)</f>
+        <f t="shared" ref="L30" si="38">AVERAGE(E28:E30)</f>
         <v>0.93963333333333343</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" ref="M30" si="37">AVERAGE(F28:F30)</f>
+        <f t="shared" ref="M30" si="39">AVERAGE(F28:F30)</f>
         <v>793.66666666666663</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" ref="N30" si="38">AVERAGE(G28:G30)</f>
+        <f t="shared" ref="N30" si="40">AVERAGE(G28:G30)</f>
         <v>427.66666666666669</v>
       </c>
       <c r="W30" s="27">
@@ -43987,19 +47765,19 @@
         <v>10.666666666666666</v>
       </c>
       <c r="AF30" s="25">
-        <f t="shared" ref="AF30:AI30" si="39">AVERAGE(Y28:Y30)</f>
+        <f t="shared" ref="AF30:AI30" si="41">AVERAGE(Y28:Y30)</f>
         <v>0.93526666666666669</v>
       </c>
       <c r="AG30" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.93653333333333333</v>
       </c>
       <c r="AH30" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2994</v>
       </c>
       <c r="AI30" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>427.66666666666669</v>
       </c>
     </row>
@@ -44026,8 +47804,8 @@
         <v>625</v>
       </c>
       <c r="I31" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_16_16_16</v>
+        <f t="shared" si="36"/>
+        <v>rgb_16_16_16</v>
       </c>
       <c r="J31" s="1"/>
       <c r="M31" s="3"/>
@@ -44083,8 +47861,8 @@
         <v>689</v>
       </c>
       <c r="I32" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_16_16</v>
+        <f t="shared" si="36"/>
+        <v>rgb_simple_16_16_16</v>
       </c>
       <c r="J32" s="1"/>
       <c r="M32" s="3"/>
@@ -44140,27 +47918,27 @@
         <v>785</v>
       </c>
       <c r="I33" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>model_all_16_16_16</v>
+        <f t="shared" si="36"/>
+        <v>all_16_16_16</v>
       </c>
       <c r="J33" s="1">
         <f>AVERAGE(C31:C33)</f>
         <v>7</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" ref="K33" si="40">AVERAGE(D31:D33)</f>
+        <f t="shared" ref="K33" si="42">AVERAGE(D31:D33)</f>
         <v>0.93990000000000007</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" ref="L33" si="41">AVERAGE(E31:E33)</f>
+        <f t="shared" ref="L33" si="43">AVERAGE(E31:E33)</f>
         <v>0.93983333333333341</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" ref="M33" si="42">AVERAGE(F31:F33)</f>
+        <f t="shared" ref="M33" si="44">AVERAGE(F31:F33)</f>
         <v>757.66666666666663</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" ref="N33" si="43">AVERAGE(G31:G33)</f>
+        <f t="shared" ref="N33" si="45">AVERAGE(G31:G33)</f>
         <v>699.66666666666663</v>
       </c>
       <c r="W33" s="27">
@@ -44192,19 +47970,19 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="AF33" s="25">
-        <f t="shared" ref="AF33:AI33" si="44">AVERAGE(Y31:Y33)</f>
+        <f t="shared" ref="AF33:AI33" si="46">AVERAGE(Y31:Y33)</f>
         <v>0.93670000000000009</v>
       </c>
       <c r="AG33" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.93696666666666673</v>
       </c>
       <c r="AH33" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1919</v>
       </c>
       <c r="AI33" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>699.66666666666663</v>
       </c>
     </row>
@@ -44231,8 +48009,8 @@
         <v>113</v>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_8_8</v>
+        <f t="shared" si="36"/>
+        <v>rgb_8_8</v>
       </c>
       <c r="J34" s="1"/>
       <c r="M34" s="3"/>
@@ -44288,8 +48066,8 @@
         <v>145</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_8_8</v>
+        <f t="shared" si="36"/>
+        <v>rgb_simple_8_8</v>
       </c>
       <c r="J35" s="1"/>
       <c r="M35" s="3"/>
@@ -44345,27 +48123,27 @@
         <v>193</v>
       </c>
       <c r="I36" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>model_all_8_8</v>
+        <f t="shared" si="36"/>
+        <v>all_8_8</v>
       </c>
       <c r="J36" s="1">
         <f>AVERAGE(C34:C36)</f>
         <v>9.6666666666666661</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" ref="K36" si="45">AVERAGE(D34:D36)</f>
+        <f t="shared" ref="K36" si="47">AVERAGE(D34:D36)</f>
         <v>0.90283333333333327</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" ref="L36" si="46">AVERAGE(E34:E36)</f>
+        <f t="shared" ref="L36" si="48">AVERAGE(E34:E36)</f>
         <v>0.92393333333333327</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" ref="M36" si="47">AVERAGE(F34:F36)</f>
+        <f t="shared" ref="M36" si="49">AVERAGE(F34:F36)</f>
         <v>1013.6666666666666</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" ref="N36" si="48">AVERAGE(G34:G36)</f>
+        <f t="shared" ref="N36" si="50">AVERAGE(G34:G36)</f>
         <v>150.33333333333334</v>
       </c>
       <c r="W36" s="27">
@@ -44397,19 +48175,19 @@
         <v>9.3333333333333339</v>
       </c>
       <c r="AF36" s="25">
-        <f t="shared" ref="AF36:AI36" si="49">AVERAGE(Y34:Y36)</f>
+        <f t="shared" ref="AF36:AI36" si="51">AVERAGE(Y34:Y36)</f>
         <v>0.93133333333333335</v>
       </c>
       <c r="AG36" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.93529999999999991</v>
       </c>
       <c r="AH36" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2173.6666666666665</v>
       </c>
       <c r="AI36" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>150.33333333333334</v>
       </c>
     </row>
@@ -44436,8 +48214,8 @@
         <v>185</v>
       </c>
       <c r="I37" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_8_8_8</v>
+        <f t="shared" si="36"/>
+        <v>rgb_8_8_8</v>
       </c>
       <c r="J37" s="1"/>
       <c r="M37" s="3"/>
@@ -44493,8 +48271,8 @@
         <v>217</v>
       </c>
       <c r="I38" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_8_8_8</v>
+        <f t="shared" si="36"/>
+        <v>rgb_simple_8_8_8</v>
       </c>
       <c r="J38" s="1"/>
       <c r="M38" s="3"/>
@@ -44550,27 +48328,27 @@
         <v>265</v>
       </c>
       <c r="I39" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>model_all_8_8_8</v>
+        <f t="shared" si="36"/>
+        <v>all_8_8_8</v>
       </c>
       <c r="J39" s="1">
         <f>AVERAGE(C37:C39)</f>
         <v>7</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" ref="K39" si="50">AVERAGE(D37:D39)</f>
+        <f t="shared" ref="K39" si="52">AVERAGE(D37:D39)</f>
         <v>0.9373999999999999</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" ref="L39" si="51">AVERAGE(E37:E39)</f>
+        <f t="shared" ref="L39" si="53">AVERAGE(E37:E39)</f>
         <v>0.93940000000000001</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" ref="M39" si="52">AVERAGE(F37:F39)</f>
+        <f t="shared" ref="M39" si="54">AVERAGE(F37:F39)</f>
         <v>760</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" ref="N39" si="53">AVERAGE(G37:G39)</f>
+        <f t="shared" ref="N39" si="55">AVERAGE(G37:G39)</f>
         <v>222.33333333333334</v>
       </c>
       <c r="W39" s="27">
@@ -44602,19 +48380,19 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="AF39" s="25">
-        <f t="shared" ref="AF39:AI39" si="54">AVERAGE(Y37:Y39)</f>
+        <f t="shared" ref="AF39:AI39" si="56">AVERAGE(Y37:Y39)</f>
         <v>0.9289333333333335</v>
       </c>
       <c r="AG39" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.93643333333333345</v>
       </c>
       <c r="AH39" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1997.6666666666667</v>
       </c>
       <c r="AI39" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>222.33333333333334</v>
       </c>
     </row>
@@ -44641,7 +48419,7 @@
         <v>209</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
@@ -44685,7 +48463,7 @@
         <v>673</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J41" s="1">
         <f>AVERAGE(C40:C41)</f>
@@ -44744,7 +48522,7 @@
         <v>193</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
@@ -44788,7 +48566,7 @@
         <v>641</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J43" s="1">
         <f>AVERAGE(C42:C43)</f>
@@ -44891,10 +48669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9EEADE-EB92-49D2-AC21-19FD28E12729}">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44933,21 +48711,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="A1" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="43">
         <v>0.88724999999999998</v>
       </c>
@@ -44956,13 +48743,20 @@
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
       <c r="I2" s="43"/>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>16*POWER(2,J2-1)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="43">
         <v>2.8186100000000001</v>
       </c>
@@ -44971,29 +48765,43 @@
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
       <c r="I3" s="43"/>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="0">16*POWER(2,J3-1)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -45018,10 +48826,17 @@
         <f>_xlfn.CONCAT(F5," +/- ",G5)</f>
         <v>-4.07676 +/- 3.15798</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -45045,31 +48860,50 @@
       <c r="H6" t="str">
         <f>_xlfn.CONCAT(F6," +/- ",G6)</f>
         <v>2.49867 +/- 2.31663</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
       <c r="W8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AE8" s="46" t="s">
+      <c r="AE8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -45096,19 +48930,19 @@
         <v>Epochs</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9:N9" si="0">D9</f>
+        <f t="shared" ref="K9:N9" si="1">D9</f>
         <v>Accuracy (train)</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Accuracy (val)</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Time (s)</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Total Params</v>
       </c>
       <c r="W9" s="17" t="s">
@@ -45137,23 +48971,26 @@
         <v>Epochs</v>
       </c>
       <c r="AF9" s="17" t="str">
-        <f t="shared" ref="AF9:AI9" si="1">Y9</f>
+        <f t="shared" ref="AF9:AI9" si="2">Y9</f>
         <v>Accuracy (train)</v>
       </c>
       <c r="AG9" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Accuracy (val)</v>
       </c>
       <c r="AH9" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Time (s)</v>
       </c>
       <c r="AI9" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Total Params</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>16</v>
+      </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -45176,15 +49013,15 @@
         <v>81</v>
       </c>
       <c r="I10" s="6" t="str">
-        <f t="shared" ref="I10:I39" si="2">AD10</f>
-        <v>model_rgb_16</v>
-      </c>
-      <c r="R10" s="45" t="s">
+        <f>SUBSTITUTE(AD10,"model_","")</f>
+        <v>rgb_16</v>
+      </c>
+      <c r="R10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
       <c r="W10" s="18">
         <v>1</v>
       </c>
@@ -45209,14 +49046,18 @@
       <c r="AD10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AM10" s="46" t="s">
+      <c r="AM10" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>A10+16*POWER(2,B11-1)</f>
+        <v>48</v>
+      </c>
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -45239,8 +49080,8 @@
         <v>641</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_16_32</v>
+        <f t="shared" ref="I11:I21" si="3">SUBSTITUTE(AD11,"model_","")</f>
+        <v>rgb_16_32</v>
       </c>
       <c r="Q11" t="s">
         <v>41</v>
@@ -45298,6 +49139,10 @@
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" ref="A12:A15" si="4">A11+16*POWER(2,B12-1)</f>
+        <v>112</v>
+      </c>
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -45320,8 +49165,8 @@
         <v>2785</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_16_32_64</v>
+        <f t="shared" si="3"/>
+        <v>rgb_16_32_64</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -45331,7 +49176,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" ref="S12:S17" si="3">AVERAGE(D10,D16,D22)</f>
+        <f t="shared" ref="S12:S17" si="5">AVERAGE(D10,D16,D22)</f>
         <v>0.9206333333333333</v>
       </c>
       <c r="T12" s="3">
@@ -45374,7 +49219,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="AN12" s="25">
-        <f t="shared" ref="AN12:AN17" si="4">AVERAGE(Y10,Y16,Y22)</f>
+        <f t="shared" ref="AN12:AN17" si="6">AVERAGE(Y10,Y16,Y22)</f>
         <v>0.91473333333333329</v>
       </c>
       <c r="AO12" s="26">
@@ -45387,6 +49232,10 @@
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -45409,26 +49258,26 @@
         <v>11169</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_16_32_64_128</v>
+        <f t="shared" si="3"/>
+        <v>rgb_16_32_64_128</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:R15" si="5">AVERAGE(C11,C17,C23)</f>
+        <f t="shared" ref="R13:R15" si="7">AVERAGE(C11,C17,C23)</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.93956666666666655</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" ref="T13:U17" si="6">AVERAGE(F11,F17,F23)</f>
+        <f t="shared" ref="T13:U17" si="8">AVERAGE(F11,F17,F23)</f>
         <v>865.66666666666663</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>715.66666666666663</v>
       </c>
       <c r="W13" s="21">
@@ -45459,23 +49308,27 @@
         <v>2</v>
       </c>
       <c r="AM13" s="24">
-        <f t="shared" ref="AM13:AM17" si="7">AVERAGE(X11,X17,X23)</f>
+        <f t="shared" ref="AM13:AM17" si="9">AVERAGE(X11,X17,X23)</f>
         <v>7.666666666666667</v>
       </c>
       <c r="AN13" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93659999999999999</v>
       </c>
       <c r="AO13" s="26">
-        <f t="shared" ref="AO13:AP17" si="8">AVERAGE(AA11,AA17,AA23)</f>
+        <f t="shared" ref="AO13:AP17" si="10">AVERAGE(AA11,AA17,AA23)</f>
         <v>2348.6666666666665</v>
       </c>
       <c r="AP13" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>715.66666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -45498,26 +49351,26 @@
         <v>44321</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_16_32_64_128_256</v>
+        <f t="shared" si="3"/>
+        <v>rgb_16_32_64_128_256</v>
       </c>
       <c r="Q14">
         <v>3</v>
       </c>
       <c r="R14" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="S14" s="2">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="3"/>
         <v>0.94016666666666671</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>795.33333333333337</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2859.6666666666665</v>
       </c>
       <c r="W14" s="21">
@@ -45548,23 +49401,27 @@
         <v>3</v>
       </c>
       <c r="AM14" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.333333333333333</v>
       </c>
       <c r="AN14" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93699999999999994</v>
       </c>
       <c r="AO14" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2423.3333333333335</v>
       </c>
       <c r="AP14" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2859.6666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>1008</v>
+      </c>
       <c r="B15" s="10">
         <v>6</v>
       </c>
@@ -45587,46 +49444,46 @@
         <v>176161</v>
       </c>
       <c r="I15" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_16_32_64_128_256_512</v>
+        <f t="shared" si="3"/>
+        <v>rgb_16_32_64_128_256_512</v>
       </c>
       <c r="J15" s="1">
         <f>AVERAGE(C10:C15)</f>
         <v>7.666666666666667</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ref="K15:N15" si="9">AVERAGE(D10:D15)</f>
+        <f t="shared" ref="K15:N15" si="11">AVERAGE(D10:D15)</f>
         <v>0.93553333333333333</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.93533333333333335</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>635</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39193</v>
       </c>
       <c r="Q15">
         <v>4</v>
       </c>
       <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="S15" s="2">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="3"/>
         <v>0.94056666666666666</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1057.3333333333333</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11243.666666666666</v>
       </c>
       <c r="W15" s="27">
@@ -45658,42 +49515,45 @@
         <v>7.666666666666667</v>
       </c>
       <c r="AF15" s="25">
-        <f t="shared" ref="AF15:AI15" si="10">AVERAGE(Y10:Y15)</f>
+        <f t="shared" ref="AF15:AI15" si="12">AVERAGE(Y10:Y15)</f>
         <v>0.93116666666666659</v>
       </c>
       <c r="AG15" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.93498333333333339</v>
       </c>
       <c r="AH15" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3220.1666666666665</v>
       </c>
       <c r="AI15" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39193</v>
       </c>
       <c r="AL15" s="17">
         <v>4</v>
       </c>
       <c r="AM15" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="AN15" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.9376000000000001</v>
       </c>
       <c r="AO15" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3245.6666666666665</v>
       </c>
       <c r="AP15" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11243.666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
@@ -45716,8 +49576,8 @@
         <v>145</v>
       </c>
       <c r="I16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_16</v>
+        <f t="shared" si="3"/>
+        <v>rgb_simple_16</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
@@ -45732,15 +49592,15 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.94099999999999995</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1216</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44395.666666666664</v>
       </c>
       <c r="W16" s="18">
@@ -45780,19 +49640,23 @@
         <v>7.666666666666667</v>
       </c>
       <c r="AN16" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93769999999999998</v>
       </c>
       <c r="AO16" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2761.6666666666665</v>
       </c>
       <c r="AP16" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44395.666666666664</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>A16+16*POWER(2,B17-1)</f>
+        <v>48</v>
+      </c>
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -45815,8 +49679,8 @@
         <v>705</v>
       </c>
       <c r="I17" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_16_32</v>
+        <f t="shared" si="3"/>
+        <v>rgb_simple_16_32</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
@@ -45827,19 +49691,19 @@
         <v>6</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ref="R17" si="11">AVERAGE(C15,C21,C27)</f>
+        <f t="shared" ref="R17" si="13">AVERAGE(C15,C21,C27)</f>
         <v>9</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9408333333333333</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1130</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>176235.66666666666</v>
       </c>
       <c r="W17" s="21">
@@ -45875,23 +49739,27 @@
         <v>6</v>
       </c>
       <c r="AM17" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.333333333333333</v>
       </c>
       <c r="AN17" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.9375</v>
       </c>
       <c r="AO17" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2823.6666666666665</v>
       </c>
       <c r="AP17" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>176235.66666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" ref="A18:A21" si="14">A17+16*POWER(2,B18-1)</f>
+        <v>112</v>
+      </c>
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -45914,8 +49782,8 @@
         <v>2849</v>
       </c>
       <c r="I18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_16_32_64</v>
+        <f t="shared" si="3"/>
+        <v>rgb_simple_16_32_64</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
@@ -45952,7 +49820,11 @@
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
       <c r="B19" s="7">
         <v>4</v>
       </c>
@@ -45975,8 +49847,8 @@
         <v>11233</v>
       </c>
       <c r="I19" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_16_32_64_128</v>
+        <f t="shared" si="3"/>
+        <v>rgb_simple_16_32_64_128</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
@@ -45999,7 +49871,7 @@
         <v>630.75</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" ref="T19:U21" si="12">AVERAGE(G28,G31,G34,G37)</f>
+        <f t="shared" ref="T19:U21" si="15">AVERAGE(G28,G31,G34,G37)</f>
         <v>319</v>
       </c>
       <c r="W19" s="21">
@@ -46047,11 +49919,15 @@
         <v>1948.5</v>
       </c>
       <c r="AP19" s="24">
-        <f t="shared" ref="AP19:AP21" si="13">AVERAGE(AB28,AB31,AB34,AB37)</f>
+        <f t="shared" ref="AP19:AP21" si="16">AVERAGE(AB28,AB31,AB34,AB37)</f>
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="14"/>
+        <v>496</v>
+      </c>
       <c r="B20" s="7">
         <v>5</v>
       </c>
@@ -46074,8 +49950,8 @@
         <v>44385</v>
       </c>
       <c r="I20" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_16_32_64_128_256</v>
+        <f t="shared" si="3"/>
+        <v>rgb_simple_16_32_64_128_256</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
@@ -46086,19 +49962,19 @@
         <v>44</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" ref="R20:S21" si="14">AVERAGE(C29,C32,C35,C38)</f>
+        <f t="shared" ref="R20:S21" si="17">AVERAGE(C29,C32,C35,C38)</f>
         <v>8</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.936025</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>838.25</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>367</v>
       </c>
       <c r="W20" s="21">
@@ -46134,23 +50010,27 @@
         <v>44</v>
       </c>
       <c r="AM20" s="24">
-        <f t="shared" ref="AM20:AN21" si="15">AVERAGE(X29,X32,X35,X38)</f>
+        <f t="shared" ref="AM20:AN21" si="18">AVERAGE(X29,X32,X35,X38)</f>
         <v>9.25</v>
       </c>
       <c r="AN20" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.93137500000000006</v>
       </c>
       <c r="AO20" s="24">
-        <f t="shared" ref="AO20:AO21" si="16">AVERAGE(AA29,AA32,AA35,AA38)</f>
+        <f t="shared" ref="AO20:AO21" si="19">AVERAGE(AA29,AA32,AA35,AA38)</f>
         <v>2058.25</v>
       </c>
       <c r="AP20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="14"/>
+        <v>1008</v>
+      </c>
       <c r="B21" s="10">
         <v>6</v>
       </c>
@@ -46173,46 +50053,46 @@
         <v>176225</v>
       </c>
       <c r="I21" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_16_32_64_128_256_512</v>
+        <f t="shared" si="3"/>
+        <v>rgb_simple_16_32_64_128_256_512</v>
       </c>
       <c r="J21" s="1">
         <f>AVERAGE(C16:C21)</f>
         <v>8.5</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ref="K21:N21" si="17">AVERAGE(D16:D21)</f>
+        <f t="shared" ref="K21:N21" si="20">AVERAGE(D16:D21)</f>
         <v>0.93636666666666668</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.93756666666666666</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>931.33333333333337</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>39257</v>
       </c>
       <c r="Q21" t="s">
         <v>45</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.93569999999999998</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1024.75</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>439</v>
       </c>
       <c r="W21" s="27">
@@ -46244,42 +50124,45 @@
         <v>7</v>
       </c>
       <c r="AF21" s="25">
-        <f t="shared" ref="AF21:AI21" si="18">AVERAGE(Y16:Y21)</f>
+        <f t="shared" ref="AF21:AI21" si="21">AVERAGE(Y16:Y21)</f>
         <v>0.93299999999999994</v>
       </c>
       <c r="AG21" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.93433333333333335</v>
       </c>
       <c r="AH21" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1560</v>
       </c>
       <c r="AI21" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>39257</v>
       </c>
       <c r="AL21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AM21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="AN21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.93524999999999991</v>
       </c>
       <c r="AO21" s="24">
+        <f t="shared" si="19"/>
+        <v>2806.5</v>
+      </c>
+      <c r="AP21" s="24">
         <f t="shared" si="16"/>
-        <v>2806.5</v>
-      </c>
-      <c r="AP21" s="24">
-        <f t="shared" si="13"/>
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
@@ -46302,7 +50185,7 @@
         <v>241</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I22:I27" si="22">AD22</f>
         <v>all_16</v>
       </c>
       <c r="J22" s="1"/>
@@ -46336,7 +50219,11 @@
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>A22+16*POWER(2,B23-1)</f>
+        <v>48</v>
+      </c>
       <c r="B23" s="7">
         <v>2</v>
       </c>
@@ -46359,7 +50246,7 @@
         <v>801</v>
       </c>
       <c r="I23" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>all_16_32</v>
       </c>
       <c r="J23" s="1"/>
@@ -46393,7 +50280,11 @@
       <c r="AH23" s="26"/>
       <c r="AI23" s="26"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" ref="A24:A27" si="23">A23+16*POWER(2,B24-1)</f>
+        <v>112</v>
+      </c>
       <c r="B24" s="7">
         <v>3</v>
       </c>
@@ -46416,7 +50307,7 @@
         <v>2945</v>
       </c>
       <c r="I24" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>all_16_32_64</v>
       </c>
       <c r="J24" s="1"/>
@@ -46450,7 +50341,11 @@
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="23"/>
+        <v>240</v>
+      </c>
       <c r="B25" s="7">
         <v>4</v>
       </c>
@@ -46473,7 +50368,7 @@
         <v>11329</v>
       </c>
       <c r="I25" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>all_16_32_64_128</v>
       </c>
       <c r="J25" s="1"/>
@@ -46507,7 +50402,11 @@
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="23"/>
+        <v>496</v>
+      </c>
       <c r="B26" s="7">
         <v>5</v>
       </c>
@@ -46530,7 +50429,7 @@
         <v>44481</v>
       </c>
       <c r="I26" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>all_16_32_64_128_256</v>
       </c>
       <c r="J26" s="1"/>
@@ -46564,7 +50463,11 @@
       <c r="AH26" s="26"/>
       <c r="AI26" s="26"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="23"/>
+        <v>1008</v>
+      </c>
       <c r="B27" s="10">
         <v>6</v>
       </c>
@@ -46587,7 +50490,7 @@
         <v>176321</v>
       </c>
       <c r="I27" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>all_16_32_64_128_256_512</v>
       </c>
       <c r="J27" s="1">
@@ -46595,15 +50498,15 @@
         <v>9.5</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:M27" si="19">AVERAGE(D22:D27)</f>
+        <f t="shared" ref="K27:M27" si="24">AVERAGE(D22:D27)</f>
         <v>0.93948333333333334</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.94015000000000004</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1454.8333333333333</v>
       </c>
       <c r="N27" s="3">
@@ -46639,15 +50542,15 @@
         <v>9.1666666666666661</v>
       </c>
       <c r="AF27" s="25">
-        <f t="shared" ref="AF27:AH27" si="20">AVERAGE(Y22:Y27)</f>
+        <f t="shared" ref="AF27:AH27" si="25">AVERAGE(Y22:Y27)</f>
         <v>0.93640000000000001</v>
       </c>
       <c r="AG27" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.93689999999999996</v>
       </c>
       <c r="AH27" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>3208.6666666666665</v>
       </c>
       <c r="AI27" s="26">
@@ -46655,7 +50558,11 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>16*B28</f>
+        <v>32</v>
+      </c>
       <c r="B28" s="4">
         <v>2</v>
       </c>
@@ -46678,8 +50585,8 @@
         <v>353</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_16_16</v>
+        <f>SUBSTITUTE(AD28,"model_","")</f>
+        <v>rgb_16_16</v>
       </c>
       <c r="J28" s="1"/>
       <c r="M28" s="3"/>
@@ -46712,7 +50619,11 @@
       <c r="AH28" s="26"/>
       <c r="AI28" s="26"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" ref="A29:A33" si="26">16*B29</f>
+        <v>32</v>
+      </c>
       <c r="B29" s="7">
         <v>2</v>
       </c>
@@ -46735,8 +50646,8 @@
         <v>417</v>
       </c>
       <c r="I29" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_16_16</v>
+        <f t="shared" ref="I29:I39" si="27">SUBSTITUTE(AD29,"model_","")</f>
+        <v>rgb_simple_16_16</v>
       </c>
       <c r="J29" s="1"/>
       <c r="M29" s="3"/>
@@ -46769,7 +50680,11 @@
       <c r="AH29" s="26"/>
       <c r="AI29" s="26"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
       <c r="B30" s="10">
         <v>2</v>
       </c>
@@ -46792,27 +50707,27 @@
         <v>513</v>
       </c>
       <c r="I30" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>model_all_16_16</v>
+        <f t="shared" si="27"/>
+        <v>all_16_16</v>
       </c>
       <c r="J30" s="1">
         <f>AVERAGE(C28:C30)</f>
         <v>7.333333333333333</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" ref="K30:N30" si="21">AVERAGE(D28:D30)</f>
+        <f t="shared" ref="K30:N30" si="28">AVERAGE(D28:D30)</f>
         <v>0.93786666666666674</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0.93963333333333343</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>793.66666666666663</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>427.66666666666669</v>
       </c>
       <c r="W30" s="27">
@@ -46844,23 +50759,27 @@
         <v>10.666666666666666</v>
       </c>
       <c r="AF30" s="25">
-        <f t="shared" ref="AF30:AI30" si="22">AVERAGE(Y28:Y30)</f>
+        <f t="shared" ref="AF30:AI30" si="29">AVERAGE(Y28:Y30)</f>
         <v>0.93526666666666669</v>
       </c>
       <c r="AG30" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>0.93653333333333333</v>
       </c>
       <c r="AH30" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>2994</v>
       </c>
       <c r="AI30" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>427.66666666666669</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>16*B31</f>
+        <v>48</v>
+      </c>
       <c r="B31" s="4">
         <v>3</v>
       </c>
@@ -46882,9 +50801,9 @@
       <c r="H31" s="5">
         <v>625</v>
       </c>
-      <c r="I31" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_16_16_16</v>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>rgb_16_16_16</v>
       </c>
       <c r="J31" s="1"/>
       <c r="M31" s="3"/>
@@ -46917,7 +50836,11 @@
       <c r="AH31" s="26"/>
       <c r="AI31" s="26"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="26"/>
+        <v>48</v>
+      </c>
       <c r="B32" s="7">
         <v>3</v>
       </c>
@@ -46939,9 +50862,9 @@
       <c r="H32" s="8">
         <v>689</v>
       </c>
-      <c r="I32" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_16_16_16</v>
+      <c r="I32" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>rgb_simple_16_16_16</v>
       </c>
       <c r="J32" s="1"/>
       <c r="M32" s="3"/>
@@ -46974,7 +50897,11 @@
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="26"/>
+        <v>48</v>
+      </c>
       <c r="B33" s="10">
         <v>3</v>
       </c>
@@ -46996,28 +50923,28 @@
       <c r="H33" s="11">
         <v>785</v>
       </c>
-      <c r="I33" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>model_all_16_16_16</v>
+      <c r="I33" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>all_16_16_16</v>
       </c>
       <c r="J33" s="1">
         <f>AVERAGE(C31:C33)</f>
         <v>7</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" ref="K33:N33" si="23">AVERAGE(D31:D33)</f>
+        <f t="shared" ref="K33:N33" si="30">AVERAGE(D31:D33)</f>
         <v>0.93990000000000007</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.93983333333333341</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>757.66666666666663</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>699.66666666666663</v>
       </c>
       <c r="W33" s="27">
@@ -47049,23 +50976,27 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="AF33" s="25">
-        <f t="shared" ref="AF33:AI33" si="24">AVERAGE(Y31:Y33)</f>
+        <f t="shared" ref="AF33:AI33" si="31">AVERAGE(Y31:Y33)</f>
         <v>0.93670000000000009</v>
       </c>
       <c r="AG33" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0.93696666666666673</v>
       </c>
       <c r="AH33" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1919</v>
       </c>
       <c r="AI33" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>699.66666666666663</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>8*B34</f>
+        <v>16</v>
+      </c>
       <c r="B34" s="4">
         <v>2</v>
       </c>
@@ -47088,8 +51019,8 @@
         <v>113</v>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_8_8</v>
+        <f t="shared" si="27"/>
+        <v>rgb_8_8</v>
       </c>
       <c r="J34" s="1"/>
       <c r="M34" s="3"/>
@@ -47122,7 +51053,11 @@
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" ref="A35:A42" si="32">8*B35</f>
+        <v>16</v>
+      </c>
       <c r="B35" s="7">
         <v>2</v>
       </c>
@@ -47145,8 +51080,8 @@
         <v>145</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_8_8</v>
+        <f t="shared" si="27"/>
+        <v>rgb_simple_8_8</v>
       </c>
       <c r="J35" s="1"/>
       <c r="M35" s="3"/>
@@ -47179,7 +51114,11 @@
       <c r="AH35" s="26"/>
       <c r="AI35" s="26"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
       <c r="B36" s="10">
         <v>2</v>
       </c>
@@ -47202,27 +51141,27 @@
         <v>193</v>
       </c>
       <c r="I36" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>model_all_8_8</v>
+        <f t="shared" si="27"/>
+        <v>all_8_8</v>
       </c>
       <c r="J36" s="1">
         <f>AVERAGE(C34:C36)</f>
         <v>9.6666666666666661</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" ref="K36:N36" si="25">AVERAGE(D34:D36)</f>
+        <f t="shared" ref="K36:N36" si="33">AVERAGE(D34:D36)</f>
         <v>0.90283333333333327</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.92393333333333327</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1013.6666666666666</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>150.33333333333334</v>
       </c>
       <c r="W36" s="27">
@@ -47254,23 +51193,27 @@
         <v>9.3333333333333339</v>
       </c>
       <c r="AF36" s="25">
-        <f t="shared" ref="AF36:AI36" si="26">AVERAGE(Y34:Y36)</f>
+        <f t="shared" ref="AF36:AI36" si="34">AVERAGE(Y34:Y36)</f>
         <v>0.93133333333333335</v>
       </c>
       <c r="AG36" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.93529999999999991</v>
       </c>
       <c r="AH36" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>2173.6666666666665</v>
       </c>
       <c r="AI36" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>150.33333333333334</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
       <c r="B37" s="4">
         <v>3</v>
       </c>
@@ -47292,9 +51235,9 @@
       <c r="H37" s="5">
         <v>185</v>
       </c>
-      <c r="I37" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_8_8_8</v>
+      <c r="I37" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>rgb_8_8_8</v>
       </c>
       <c r="J37" s="1"/>
       <c r="M37" s="3"/>
@@ -47327,7 +51270,11 @@
       <c r="AH37" s="26"/>
       <c r="AI37" s="26"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
       <c r="B38" s="7">
         <v>3</v>
       </c>
@@ -47349,9 +51296,9 @@
       <c r="H38" s="8">
         <v>217</v>
       </c>
-      <c r="I38" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>model_rgb_simple_8_8_8</v>
+      <c r="I38" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>rgb_simple_8_8_8</v>
       </c>
       <c r="J38" s="1"/>
       <c r="M38" s="3"/>
@@ -47384,7 +51331,11 @@
       <c r="AH38" s="26"/>
       <c r="AI38" s="26"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
       <c r="B39" s="10">
         <v>3</v>
       </c>
@@ -47406,28 +51357,28 @@
       <c r="H39" s="11">
         <v>265</v>
       </c>
-      <c r="I39" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>model_all_8_8_8</v>
+      <c r="I39" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>all_8_8_8</v>
       </c>
       <c r="J39" s="1">
         <f>AVERAGE(C37:C39)</f>
         <v>7</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" ref="K39:N39" si="27">AVERAGE(D37:D39)</f>
+        <f t="shared" ref="K39:N39" si="35">AVERAGE(D37:D39)</f>
         <v>0.9373999999999999</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.93940000000000001</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>760</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>222.33333333333334</v>
       </c>
       <c r="W39" s="27">
@@ -47459,23 +51410,27 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="AF39" s="25">
-        <f t="shared" ref="AF39:AI39" si="28">AVERAGE(Y37:Y39)</f>
+        <f t="shared" ref="AF39:AI39" si="36">AVERAGE(Y37:Y39)</f>
         <v>0.9289333333333335</v>
       </c>
       <c r="AG39" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.93643333333333345</v>
       </c>
       <c r="AH39" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1997.6666666666667</v>
       </c>
       <c r="AI39" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>222.33333333333334</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
       <c r="B40" s="36">
         <v>3</v>
       </c>
@@ -47497,8 +51452,8 @@
       <c r="H40" s="13">
         <v>209</v>
       </c>
-      <c r="I40" s="39" t="s">
-        <v>56</v>
+      <c r="I40" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
@@ -47519,7 +51474,11 @@
       <c r="AH40" s="26"/>
       <c r="AI40" s="26"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" ref="A41" si="37">16*B41</f>
+        <v>48</v>
+      </c>
       <c r="B41" s="37">
         <v>3</v>
       </c>
@@ -47542,7 +51501,7 @@
         <v>673</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J41" s="1">
         <f>AVERAGE(C40:C41)</f>
@@ -47578,7 +51537,11 @@
       <c r="AH41" s="26"/>
       <c r="AI41" s="26"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
       <c r="B42" s="36">
         <v>3</v>
       </c>
@@ -47601,7 +51564,7 @@
         <v>193</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
@@ -47622,7 +51585,11 @@
       <c r="AH42" s="26"/>
       <c r="AI42" s="26"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" ref="A43" si="38">16*B43</f>
+        <v>48</v>
+      </c>
       <c r="B43" s="37">
         <v>3</v>
       </c>
@@ -47645,7 +51612,7 @@
         <v>641</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J43" s="1">
         <f>AVERAGE(C42:C43)</f>
@@ -47680,6 +51647,71 @@
       <c r="AG43" s="25"/>
       <c r="AH43" s="26"/>
       <c r="AI43" s="26"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="45">
+        <f>AVERAGE(D10:D43)</f>
+        <v>0.90956470588235305</v>
+      </c>
+      <c r="E44" s="45">
+        <f>AVERAGE(E10:E43)</f>
+        <v>0.91212647058823537</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -47716,7 +51748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10:Y43">
+  <conditionalFormatting sqref="Y10:Y45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -47728,7 +51760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA10:AA43">
+  <conditionalFormatting sqref="AA10:AA45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -47748,10 +51780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB32AC5E-7D8B-4F66-BF44-89F0FAC2E2BF}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47759,356 +51791,505 @@
     <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="47" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="31" t="s">
+    <row r="2" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>analysis!I10</f>
-        <v>model_rgb_16</v>
+        <v>rgb_16</v>
       </c>
       <c r="B3">
         <f>analysis!B10</f>
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <f>analysis!C10</f>
         <v>7</v>
       </c>
-      <c r="D3">
-        <f>analysis!D10</f>
+      <c r="D3" s="8">
+        <f>analysis_UPDATED_functions!F10</f>
+        <v>545</v>
+      </c>
+      <c r="E3" s="8">
+        <f>analysis_UPDATED_functions!G10</f>
+        <v>81</v>
+      </c>
+      <c r="F3" s="9">
+        <f>analysis_UPDATED_functions!D10</f>
         <v>0.91479999999999995</v>
       </c>
-      <c r="E3">
-        <f>analysis!F10</f>
-        <v>545</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <f>analysis!E10</f>
         <v>0.9214</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>analysis!I11</f>
-        <v>model_rgb_16_32</v>
+        <v>rgb_16_32</v>
       </c>
       <c r="B4">
         <f>analysis!B11</f>
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <f>analysis!C11</f>
         <v>11</v>
       </c>
-      <c r="D4">
-        <f>analysis!D11</f>
+      <c r="D4" s="8">
+        <f>analysis_UPDATED_functions!F11</f>
+        <v>884</v>
+      </c>
+      <c r="E4" s="8">
+        <f>analysis_UPDATED_functions!G11</f>
+        <v>641</v>
+      </c>
+      <c r="F4" s="9">
+        <f>analysis_UPDATED_functions!D11</f>
         <v>0.93910000000000005</v>
       </c>
-      <c r="E4">
-        <f>analysis!F11</f>
-        <v>884</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <f>analysis!E11</f>
         <v>0.93799999999999994</v>
       </c>
+      <c r="L4">
+        <f t="shared" ref="L4:M8" si="0">F4-F$3</f>
+        <v>2.4300000000000099E-2</v>
+      </c>
+      <c r="M4">
+        <f>G4-G$3</f>
+        <v>1.6599999999999948E-2</v>
+      </c>
+      <c r="O4">
+        <f>E8/E3</f>
+        <v>2174.8271604938273</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>analysis!I12</f>
-        <v>model_rgb_16_32_64</v>
+        <v>rgb_16_32_64</v>
       </c>
       <c r="B5">
         <f>analysis!B12</f>
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <f>analysis!C12</f>
         <v>7</v>
       </c>
-      <c r="D5">
-        <f>analysis!D12</f>
+      <c r="D5" s="8">
+        <f>analysis_UPDATED_functions!F12</f>
+        <v>576</v>
+      </c>
+      <c r="E5" s="8">
+        <f>analysis_UPDATED_functions!G12</f>
+        <v>2785</v>
+      </c>
+      <c r="F5" s="9">
+        <f>analysis_UPDATED_functions!D12</f>
         <v>0.93979999999999997</v>
       </c>
-      <c r="E5">
-        <f>analysis!F12</f>
-        <v>576</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <f>analysis!E12</f>
         <v>0.93859999999999999</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.7199999999999993E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>analysis!I13</f>
-        <v>model_rgb_16_32_64_128</v>
+        <v>rgb_16_32_64_128</v>
       </c>
       <c r="B6">
         <f>analysis!B13</f>
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <f>analysis!C13</f>
         <v>7</v>
       </c>
-      <c r="D6">
-        <f>analysis!D13</f>
+      <c r="D6" s="8">
+        <f>analysis_UPDATED_functions!F13</f>
+        <v>592</v>
+      </c>
+      <c r="E6" s="8">
+        <f>analysis_UPDATED_functions!G13</f>
+        <v>11169</v>
+      </c>
+      <c r="F6" s="9">
+        <f>analysis_UPDATED_functions!D13</f>
         <v>0.93979999999999997</v>
       </c>
-      <c r="E6">
-        <f>analysis!F13</f>
-        <v>592</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <f>analysis!E13</f>
         <v>0.93659999999999999</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.5199999999999991E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>analysis!I14</f>
-        <v>model_rgb_16_32_64_128_256</v>
+        <v>rgb_16_32_64_128_256</v>
       </c>
       <c r="B7">
         <f>analysis!B14</f>
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <f>analysis!C14</f>
         <v>7</v>
       </c>
-      <c r="D7">
-        <f>analysis!D14</f>
+      <c r="D7" s="8">
+        <f>analysis_UPDATED_functions!F14</f>
+        <v>592</v>
+      </c>
+      <c r="E7" s="8">
+        <f>analysis_UPDATED_functions!G14</f>
+        <v>44321</v>
+      </c>
+      <c r="F7" s="9">
+        <f>analysis_UPDATED_functions!D14</f>
         <v>0.93989999999999996</v>
       </c>
-      <c r="E7">
-        <f>analysis!F14</f>
-        <v>592</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <f>analysis!E14</f>
         <v>0.9385</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2.5100000000000011E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1.7100000000000004E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="str">
         <f>analysis!I15</f>
-        <v>model_rgb_16_32_64_128_256_512</v>
+        <v>rgb_16_32_64_128_256_512</v>
       </c>
       <c r="B8" s="32">
         <f>analysis!B15</f>
         <v>6</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="50">
         <f>analysis!C15</f>
         <v>7</v>
       </c>
       <c r="D8" s="32">
-        <f>analysis!D15</f>
+        <f>analysis_UPDATED_functions!F15</f>
+        <v>621</v>
+      </c>
+      <c r="E8" s="32">
+        <f>analysis_UPDATED_functions!G15</f>
+        <v>176161</v>
+      </c>
+      <c r="F8" s="51">
+        <f>analysis_UPDATED_functions!D15</f>
         <v>0.93979999999999997</v>
       </c>
-      <c r="E8" s="32">
-        <f>analysis!F15</f>
-        <v>621</v>
-      </c>
-      <c r="F8" s="32">
+      <c r="G8" s="32">
         <f>analysis!E15</f>
         <v>0.93889999999999996</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1.749999999999996E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>analysis!I16</f>
-        <v>model_rgb_simple_16</v>
+        <v>rgb_simple_16</v>
       </c>
       <c r="B9">
         <f>analysis!B16</f>
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <f>analysis!C16</f>
         <v>7</v>
       </c>
-      <c r="D9">
-        <f>analysis!D16</f>
+      <c r="D9" s="8">
+        <f>analysis_UPDATED_functions!F16</f>
+        <v>741</v>
+      </c>
+      <c r="E9" s="8">
+        <f>analysis_UPDATED_functions!G16</f>
+        <v>145</v>
+      </c>
+      <c r="F9" s="9">
+        <f>analysis_UPDATED_functions!D16</f>
         <v>0.91569999999999996</v>
       </c>
-      <c r="E9">
-        <f>analysis!F16</f>
-        <v>741</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <f>analysis!E16</f>
         <v>0.92269999999999996</v>
       </c>
+      <c r="H9">
+        <f>E9/E3</f>
+        <v>1.7901234567901234</v>
+      </c>
+      <c r="I9">
+        <f>G9/G3-1</f>
+        <v>1.4108964619057307E-3</v>
+      </c>
+      <c r="J9">
+        <f>G9-G3</f>
+        <v>1.2999999999999678E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>analysis!I17</f>
-        <v>model_rgb_simple_16_32</v>
+        <v>rgb_simple_16_32</v>
       </c>
       <c r="B10">
         <f>analysis!B17</f>
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <f>analysis!C17</f>
         <v>7</v>
       </c>
-      <c r="D10">
-        <f>analysis!D17</f>
+      <c r="D10" s="8">
+        <f>analysis_UPDATED_functions!F17</f>
+        <v>700</v>
+      </c>
+      <c r="E10" s="8">
+        <f>analysis_UPDATED_functions!G17</f>
+        <v>705</v>
+      </c>
+      <c r="F10" s="9">
+        <f>analysis_UPDATED_functions!D17</f>
         <v>0.93969999999999998</v>
       </c>
-      <c r="E10">
-        <f>analysis!F17</f>
-        <v>700</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <f>analysis!E17</f>
         <v>0.94010000000000005</v>
       </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H14" si="1">E10/E4</f>
+        <v>1.0998439937597504</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I14" si="2">G10/G4-1</f>
+        <v>2.2388059701494711E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>analysis!I18</f>
-        <v>model_rgb_simple_16_32_64</v>
+        <v>rgb_simple_16_32_64</v>
       </c>
       <c r="B11">
         <f>analysis!B18</f>
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <f>analysis!C18</f>
         <v>7</v>
       </c>
-      <c r="D11">
-        <f>analysis!D18</f>
+      <c r="D11" s="8">
+        <f>analysis_UPDATED_functions!F18</f>
+        <v>749</v>
+      </c>
+      <c r="E11" s="8">
+        <f>analysis_UPDATED_functions!G18</f>
+        <v>2849</v>
+      </c>
+      <c r="F11" s="9">
+        <f>analysis_UPDATED_functions!D18</f>
         <v>0.94030000000000002</v>
       </c>
-      <c r="E11">
-        <f>analysis!F18</f>
-        <v>749</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <f>analysis!E18</f>
         <v>0.94030000000000002</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.0229802513464992</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.8112081823993265E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>analysis!I19</f>
-        <v>model_rgb_simple_16_32_64_128</v>
+        <v>rgb_simple_16_32_64_128</v>
       </c>
       <c r="B12">
         <f>analysis!B19</f>
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <f>analysis!C19</f>
         <v>10</v>
       </c>
-      <c r="D12">
-        <f>analysis!D19</f>
+      <c r="D12" s="8">
+        <f>analysis_UPDATED_functions!F19</f>
+        <v>1075</v>
+      </c>
+      <c r="E12" s="8">
+        <f>analysis_UPDATED_functions!G19</f>
+        <v>11233</v>
+      </c>
+      <c r="F12" s="9">
+        <f>analysis_UPDATED_functions!D19</f>
         <v>0.94059999999999999</v>
       </c>
-      <c r="E12">
-        <f>analysis!F19</f>
-        <v>1075</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <f>analysis!E19</f>
         <v>0.94059999999999999</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.0057301459396544</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>4.2707666026051694E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>analysis!I20</f>
-        <v>model_rgb_simple_16_32_64_128_256</v>
+        <v>rgb_simple_16_32_64_128_256</v>
       </c>
       <c r="B13">
         <f>analysis!B20</f>
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <f>analysis!C20</f>
         <v>9</v>
       </c>
-      <c r="D13">
-        <f>analysis!D20</f>
+      <c r="D13" s="8">
+        <f>analysis_UPDATED_functions!F20</f>
+        <v>1009</v>
+      </c>
+      <c r="E13" s="8">
+        <f>analysis_UPDATED_functions!G20</f>
+        <v>44385</v>
+      </c>
+      <c r="F13" s="9">
+        <f>analysis_UPDATED_functions!D20</f>
         <v>0.94089999999999996</v>
       </c>
-      <c r="E13">
-        <f>analysis!F20</f>
-        <v>1009</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <f>analysis!E20</f>
         <v>0.94089999999999996</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.0014440107398299</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2.5572722429407779E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="str">
         <f>analysis!I21</f>
-        <v>model_rgb_simple_16_32_64_128_256_512</v>
+        <v>rgb_simple_16_32_64_128_256_512</v>
       </c>
       <c r="B14" s="32">
         <f>analysis!B21</f>
         <v>6</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="50">
         <f>analysis!C21</f>
         <v>11</v>
       </c>
       <c r="D14" s="32">
-        <f>analysis!D21</f>
+        <f>analysis_UPDATED_functions!F21</f>
+        <v>1314</v>
+      </c>
+      <c r="E14" s="32">
+        <f>analysis_UPDATED_functions!G21</f>
+        <v>176225</v>
+      </c>
+      <c r="F14" s="51">
+        <f>analysis_UPDATED_functions!D21</f>
         <v>0.94099999999999995</v>
       </c>
-      <c r="E14" s="32">
-        <f>analysis!F21</f>
-        <v>1314</v>
-      </c>
-      <c r="F14" s="32">
+      <c r="G14" s="32">
         <f>analysis!E21</f>
         <v>0.94079999999999997</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.0003633040230244</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>2.0236446905954608E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>analysis!I22</f>
         <v>all_16</v>
@@ -48117,24 +52298,56 @@
         <f>analysis!B22</f>
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <f>analysis!C22</f>
         <v>11</v>
       </c>
-      <c r="D15">
-        <f>analysis!D22</f>
+      <c r="D15" s="8">
+        <f>analysis_UPDATED_functions!F22</f>
+        <v>1648</v>
+      </c>
+      <c r="E15" s="8">
+        <f>analysis_UPDATED_functions!G22</f>
+        <v>241</v>
+      </c>
+      <c r="F15" s="9">
+        <f>analysis_UPDATED_functions!D22</f>
         <v>0.93140000000000001</v>
       </c>
-      <c r="E15">
-        <f>analysis!F22</f>
-        <v>1648</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <f>analysis!E22</f>
         <v>0.93530000000000002</v>
       </c>
+      <c r="H15">
+        <f>E15/E3</f>
+        <v>2.9753086419753085</v>
+      </c>
+      <c r="I15">
+        <f>G15/G3-1</f>
+        <v>1.5085739092685069E-2</v>
+      </c>
+      <c r="J15">
+        <f>G15-G3</f>
+        <v>1.3900000000000023E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <f>F15-F9</f>
+        <v>1.5700000000000047E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <f>G15-G9</f>
+        <v>1.2600000000000056E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <f>F15-F3</f>
+        <v>1.6600000000000059E-2</v>
+      </c>
+      <c r="P15" s="2">
+        <f>G15-G3</f>
+        <v>1.3900000000000023E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>analysis!I23</f>
         <v>all_16_32</v>
@@ -48143,24 +52356,52 @@
         <f>analysis!B23</f>
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <f>analysis!C23</f>
         <v>7</v>
       </c>
-      <c r="D16">
-        <f>analysis!D23</f>
+      <c r="D16" s="8">
+        <f>analysis_UPDATED_functions!F23</f>
+        <v>1013</v>
+      </c>
+      <c r="E16" s="8">
+        <f>analysis_UPDATED_functions!G23</f>
+        <v>801</v>
+      </c>
+      <c r="F16" s="9">
+        <f>analysis_UPDATED_functions!D23</f>
         <v>0.93989999999999996</v>
       </c>
-      <c r="E16">
-        <f>analysis!F23</f>
-        <v>1013</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <f>analysis!E23</f>
         <v>0.94010000000000005</v>
       </c>
+      <c r="H16">
+        <f t="shared" ref="H15:H19" si="3">E16/E4</f>
+        <v>1.249609984399376</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I20" si="4">G16/G4-1</f>
+        <v>2.2388059701494711E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ref="L16:M20" si="5">F16-F10</f>
+        <v>1.9999999999997797E-4</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" ref="O16:P20" si="6">F16-F4</f>
+        <v>7.9999999999991189E-4</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1000000000001018E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>analysis!I24</f>
         <v>all_16_32_64</v>
@@ -48169,24 +52410,52 @@
         <f>analysis!B24</f>
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <f>analysis!C24</f>
         <v>7</v>
       </c>
-      <c r="D17">
-        <f>analysis!D24</f>
+      <c r="D17" s="8">
+        <f>analysis_UPDATED_functions!F24</f>
+        <v>1061</v>
+      </c>
+      <c r="E17" s="8">
+        <f>analysis_UPDATED_functions!G24</f>
+        <v>2945</v>
+      </c>
+      <c r="F17" s="9">
+        <f>analysis_UPDATED_functions!D24</f>
         <v>0.94040000000000001</v>
       </c>
-      <c r="E17">
-        <f>analysis!F24</f>
-        <v>1061</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <f>analysis!E24</f>
         <v>0.94010000000000005</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.0574506283662477</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>1.5981248668230918E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="5"/>
+        <v>9.9999999999988987E-5</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.9999999999997797E-4</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="6"/>
+        <v>6.0000000000004494E-4</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5000000000000568E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>analysis!I25</f>
         <v>all_16_32_64_128</v>
@@ -48195,24 +52464,52 @@
         <f>analysis!B25</f>
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <f>analysis!C25</f>
         <v>10</v>
       </c>
-      <c r="D18">
-        <f>analysis!D25</f>
+      <c r="D18" s="8">
+        <f>analysis_UPDATED_functions!F25</f>
+        <v>1505</v>
+      </c>
+      <c r="E18" s="8">
+        <f>analysis_UPDATED_functions!G25</f>
+        <v>11329</v>
+      </c>
+      <c r="F18" s="9">
+        <f>analysis_UPDATED_functions!D25</f>
         <v>0.94130000000000003</v>
       </c>
-      <c r="E18">
-        <f>analysis!F25</f>
-        <v>1505</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <f>analysis!E25</f>
         <v>0.94130000000000003</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.0143253648491359</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>5.0181507580611129E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="5"/>
+        <v>7.0000000000003393E-4</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="5"/>
+        <v>7.0000000000003393E-4</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5000000000000568E-3</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="6"/>
+        <v>4.7000000000000375E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>analysis!I26</f>
         <v>all_16_32_64_128_256</v>
@@ -48221,24 +52518,52 @@
         <f>analysis!B26</f>
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <f>analysis!C26</f>
         <v>13</v>
       </c>
-      <c r="D19">
-        <f>analysis!D26</f>
+      <c r="D19" s="8">
+        <f>analysis_UPDATED_functions!F26</f>
+        <v>2047</v>
+      </c>
+      <c r="E19" s="8">
+        <f>analysis_UPDATED_functions!G26</f>
+        <v>44481</v>
+      </c>
+      <c r="F19" s="9">
+        <f>analysis_UPDATED_functions!D26</f>
         <v>0.94220000000000004</v>
       </c>
-      <c r="E19">
-        <f>analysis!F26</f>
-        <v>2047</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <f>analysis!E26</f>
         <v>0.94230000000000003</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1.0036100268495747</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>4.0490143846563242E-3</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000789E-3</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000679E-3</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3000000000000798E-3</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="6"/>
+        <v>3.8000000000000256E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="str">
         <f>analysis!I27</f>
         <v>all_16_32_64_128_256_512</v>
@@ -48247,364 +52572,635 @@
         <f>analysis!B27</f>
         <v>6</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="50">
         <f>analysis!C27</f>
         <v>9</v>
       </c>
       <c r="D20" s="32">
-        <f>analysis!D27</f>
+        <f>analysis_UPDATED_functions!F27</f>
+        <v>1455</v>
+      </c>
+      <c r="E20" s="32">
+        <f>analysis_UPDATED_functions!G27</f>
+        <v>176321</v>
+      </c>
+      <c r="F20" s="51">
+        <f>analysis_UPDATED_functions!D27</f>
         <v>0.94169999999999998</v>
       </c>
-      <c r="E20" s="32">
-        <f>analysis!F27</f>
-        <v>1455</v>
-      </c>
-      <c r="F20" s="32">
+      <c r="G20" s="32">
         <f>analysis!E27</f>
         <v>0.94179999999999997</v>
       </c>
+      <c r="H20">
+        <f>E20/E8</f>
+        <v>1.000908260057561</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>3.0887208435403934E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="5"/>
+        <v>7.0000000000003393E-4</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9000000000000128E-3</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9000000000000137E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>analysis!I28</f>
-        <v>model_rgb_16_16</v>
+        <v>rgb_16_16</v>
       </c>
       <c r="B21">
         <f>analysis!B28</f>
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <f>analysis!C28</f>
         <v>8</v>
       </c>
-      <c r="D21">
-        <f>analysis!D28</f>
+      <c r="D21" s="8">
+        <f>analysis_UPDATED_functions!F28</f>
+        <v>624</v>
+      </c>
+      <c r="E21" s="8">
+        <f>analysis_UPDATED_functions!G28</f>
+        <v>353</v>
+      </c>
+      <c r="F21" s="9">
+        <f>analysis_UPDATED_functions!D28</f>
         <v>0.93479999999999996</v>
       </c>
-      <c r="E21">
-        <f>analysis!F28</f>
-        <v>624</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <f>analysis!E28</f>
         <v>0.93859999999999999</v>
       </c>
+      <c r="J21">
+        <f>G21-G27</f>
+        <v>4.4100000000000028E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>analysis!I29</f>
-        <v>model_rgb_simple_16_16</v>
+        <v>rgb_simple_16_16</v>
       </c>
       <c r="B22">
         <f>analysis!B29</f>
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <f>analysis!C29</f>
         <v>7</v>
       </c>
-      <c r="D22">
-        <f>analysis!D29</f>
+      <c r="D22" s="8">
+        <f>analysis_UPDATED_functions!F29</f>
+        <v>724</v>
+      </c>
+      <c r="E22" s="8">
+        <f>analysis_UPDATED_functions!G29</f>
+        <v>417</v>
+      </c>
+      <c r="F22" s="9">
+        <f>analysis_UPDATED_functions!D29</f>
         <v>0.93879999999999997</v>
       </c>
-      <c r="E22">
-        <f>analysis!F29</f>
-        <v>724</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <f>analysis!E29</f>
         <v>0.94</v>
       </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J23" si="7">G22-G28</f>
+        <v>1.3999999999999568E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="str">
         <f>analysis!I30</f>
-        <v>model_all_16_16</v>
+        <v>all_16_16</v>
       </c>
       <c r="B23" s="32">
         <f>analysis!B30</f>
         <v>2</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="50">
         <f>analysis!C30</f>
         <v>7</v>
       </c>
       <c r="D23" s="32">
-        <f>analysis!D30</f>
+        <f>analysis_UPDATED_functions!F30</f>
+        <v>1033</v>
+      </c>
+      <c r="E23" s="32">
+        <f>analysis_UPDATED_functions!G30</f>
+        <v>513</v>
+      </c>
+      <c r="F23" s="51">
+        <f>analysis_UPDATED_functions!D30</f>
         <v>0.94</v>
       </c>
-      <c r="E23" s="32">
-        <f>analysis!F30</f>
-        <v>1033</v>
-      </c>
-      <c r="F23" s="32">
+      <c r="G23" s="32">
         <f>analysis!E30</f>
         <v>0.94030000000000002</v>
       </c>
+      <c r="H23">
+        <f>E23/E21</f>
+        <v>1.453257790368272</v>
+      </c>
+      <c r="I23">
+        <f>G23/G21</f>
+        <v>1.0018112081823993</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000458E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>analysis!I31</f>
-        <v>model_rgb_16_16_16</v>
+        <v>rgb_16_16_16</v>
       </c>
       <c r="B24">
         <f>analysis!B31</f>
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <f>analysis!C31</f>
         <v>7</v>
       </c>
-      <c r="D24">
-        <f>analysis!D31</f>
+      <c r="D24" s="8">
+        <f>analysis_UPDATED_functions!F31</f>
+        <v>513</v>
+      </c>
+      <c r="E24" s="8">
+        <f>analysis_UPDATED_functions!G31</f>
+        <v>625</v>
+      </c>
+      <c r="F24" s="9">
+        <f>analysis_UPDATED_functions!D31</f>
         <v>0.93940000000000001</v>
       </c>
-      <c r="E24">
-        <f>analysis!F31</f>
-        <v>513</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <f>analysis!E31</f>
         <v>0.93879999999999997</v>
       </c>
+      <c r="J24">
+        <f>G24-G30</f>
+        <v>8.0000000000002292E-4</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>analysis!I32</f>
-        <v>model_rgb_simple_16_16_16</v>
+        <v>rgb_simple_16_16_16</v>
       </c>
       <c r="B25">
         <f>analysis!B32</f>
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <f>analysis!C32</f>
         <v>7</v>
       </c>
-      <c r="D25">
-        <f>analysis!D32</f>
+      <c r="D25" s="8">
+        <f>analysis_UPDATED_functions!F32</f>
+        <v>742</v>
+      </c>
+      <c r="E25" s="8">
+        <f>analysis_UPDATED_functions!G32</f>
+        <v>689</v>
+      </c>
+      <c r="F25" s="9">
+        <f>analysis_UPDATED_functions!D32</f>
         <v>0.94</v>
       </c>
-      <c r="E25">
-        <f>analysis!F32</f>
-        <v>742</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <f>analysis!E32</f>
         <v>0.94040000000000001</v>
       </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J26" si="8">G25-G31</f>
+        <v>1.9999999999997797E-4</v>
+      </c>
+      <c r="O25">
+        <f>O26-O27</f>
+        <v>8.3799999999999986E-2</v>
+      </c>
+      <c r="P25">
+        <f>P26-P27</f>
+        <v>4.5900000000000052E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="str">
         <f>analysis!I33</f>
-        <v>model_all_16_16_16</v>
+        <v>all_16_16_16</v>
       </c>
       <c r="B26" s="32">
         <f>analysis!B33</f>
         <v>3</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="50">
         <f>analysis!C33</f>
         <v>7</v>
       </c>
       <c r="D26" s="32">
-        <f>analysis!D33</f>
+        <f>analysis_UPDATED_functions!F33</f>
+        <v>1018</v>
+      </c>
+      <c r="E26" s="32">
+        <f>analysis_UPDATED_functions!G33</f>
+        <v>785</v>
+      </c>
+      <c r="F26" s="51">
+        <f>analysis_UPDATED_functions!D33</f>
         <v>0.94030000000000002</v>
       </c>
-      <c r="E26" s="32">
-        <f>analysis!F33</f>
-        <v>1018</v>
-      </c>
-      <c r="F26" s="32">
+      <c r="G26" s="32">
         <f>analysis!E33</f>
         <v>0.94030000000000002</v>
       </c>
+      <c r="H26">
+        <f>E26/E24</f>
+        <v>1.256</v>
+      </c>
+      <c r="I26">
+        <f>G26/G24</f>
+        <v>1.0015977844056243</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>3.0000000000007798E-4</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE(F21:F32)</f>
+        <v>0.9295000000000001</v>
+      </c>
+      <c r="M26">
+        <f>AVERAGE(G21:G32)</f>
+        <v>0.93570000000000009</v>
+      </c>
+      <c r="O26">
+        <f>MAX(F21:F32)</f>
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="P26">
+        <f>MAX(G21:G32)</f>
+        <v>0.94040000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>analysis!I34</f>
-        <v>model_rgb_8_8</v>
+        <v>rgb_8_8</v>
       </c>
       <c r="B27">
         <f>analysis!B34</f>
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <f>analysis!C34</f>
         <v>11</v>
       </c>
-      <c r="D27">
-        <f>analysis!D34</f>
+      <c r="D27" s="8">
+        <f>analysis_UPDATED_functions!F34</f>
+        <v>850</v>
+      </c>
+      <c r="E27" s="8">
+        <f>analysis_UPDATED_functions!G34</f>
+        <v>113</v>
+      </c>
+      <c r="F27" s="9">
+        <f>analysis_UPDATED_functions!D34</f>
         <v>0.85650000000000004</v>
       </c>
-      <c r="E27">
-        <f>analysis!F34</f>
-        <v>850</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <f>analysis!E34</f>
         <v>0.89449999999999996</v>
       </c>
+      <c r="O27">
+        <f>MIN(F21:F32)</f>
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="P27">
+        <f>MIN(G21:G32)</f>
+        <v>0.89449999999999996</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>analysis!I35</f>
-        <v>model_rgb_simple_8_8</v>
+        <v>rgb_simple_8_8</v>
       </c>
       <c r="B28">
         <f>analysis!B35</f>
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <f>analysis!C35</f>
         <v>11</v>
       </c>
-      <c r="D28">
-        <f>analysis!D35</f>
+      <c r="D28" s="8">
+        <f>analysis_UPDATED_functions!F35</f>
+        <v>1154</v>
+      </c>
+      <c r="E28" s="8">
+        <f>analysis_UPDATED_functions!G35</f>
+        <v>145</v>
+      </c>
+      <c r="F28" s="9">
+        <f>analysis_UPDATED_functions!D35</f>
         <v>0.92589999999999995</v>
       </c>
-      <c r="E28">
-        <f>analysis!F35</f>
-        <v>1154</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <f>analysis!E35</f>
         <v>0.93859999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="str">
         <f>analysis!I36</f>
-        <v>model_all_8_8</v>
+        <v>all_8_8</v>
       </c>
       <c r="B29" s="32">
         <f>analysis!B36</f>
         <v>2</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="50">
         <f>analysis!C36</f>
         <v>7</v>
       </c>
       <c r="D29" s="32">
-        <f>analysis!D36</f>
+        <f>analysis_UPDATED_functions!F36</f>
+        <v>1037</v>
+      </c>
+      <c r="E29" s="32">
+        <f>analysis_UPDATED_functions!G36</f>
+        <v>193</v>
+      </c>
+      <c r="F29" s="51">
+        <f>analysis_UPDATED_functions!D36</f>
         <v>0.92610000000000003</v>
       </c>
-      <c r="E29" s="32">
-        <f>analysis!F36</f>
-        <v>1037</v>
-      </c>
-      <c r="F29" s="32">
+      <c r="G29" s="32">
         <f>analysis!E36</f>
         <v>0.93869999999999998</v>
       </c>
+      <c r="H29">
+        <f>E29/E27</f>
+        <v>1.7079646017699115</v>
+      </c>
+      <c r="I29">
+        <f>G29/G27</f>
+        <v>1.0494130799329235</v>
+      </c>
+      <c r="L29">
+        <f>F36-F24</f>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="M29">
+        <f>G36-G24</f>
+        <v>1.3700000000000045E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>analysis!I37</f>
-        <v>model_rgb_8_8_8</v>
+        <v>rgb_8_8_8</v>
       </c>
       <c r="B30">
         <f>analysis!B37</f>
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <f>analysis!C37</f>
         <v>7</v>
       </c>
-      <c r="D30">
-        <f>analysis!D37</f>
+      <c r="D30" s="8">
+        <f>analysis_UPDATED_functions!F37</f>
+        <v>536</v>
+      </c>
+      <c r="E30" s="8">
+        <f>analysis_UPDATED_functions!G37</f>
+        <v>185</v>
+      </c>
+      <c r="F30" s="9">
+        <f>analysis_UPDATED_functions!D37</f>
         <v>0.93640000000000001</v>
       </c>
-      <c r="E30">
-        <f>analysis!F37</f>
-        <v>536</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <f>analysis!E37</f>
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>analysis!I38</f>
-        <v>model_rgb_simple_8_8_8</v>
+        <v>rgb_simple_8_8_8</v>
       </c>
       <c r="B31">
         <f>analysis!B38</f>
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <f>analysis!C38</f>
         <v>7</v>
       </c>
-      <c r="D31">
-        <f>analysis!D38</f>
+      <c r="D31" s="8">
+        <f>analysis_UPDATED_functions!F38</f>
+        <v>733</v>
+      </c>
+      <c r="E31" s="8">
+        <f>analysis_UPDATED_functions!G38</f>
+        <v>217</v>
+      </c>
+      <c r="F31" s="9">
+        <f>analysis_UPDATED_functions!D38</f>
         <v>0.93940000000000001</v>
       </c>
-      <c r="E31">
-        <f>analysis!F38</f>
-        <v>733</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
         <f>analysis!E38</f>
         <v>0.94020000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="32" t="str">
         <f>analysis!I39</f>
-        <v>model_all_8_8_8</v>
-      </c>
-      <c r="B32">
+        <v>all_8_8_8</v>
+      </c>
+      <c r="B32" s="32">
         <f>analysis!B39</f>
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="50">
         <f>analysis!C39</f>
         <v>7</v>
       </c>
-      <c r="D32">
-        <f>analysis!D39</f>
+      <c r="D32" s="32">
+        <f>analysis_UPDATED_functions!F39</f>
+        <v>1011</v>
+      </c>
+      <c r="E32" s="32">
+        <f>analysis_UPDATED_functions!G39</f>
+        <v>265</v>
+      </c>
+      <c r="F32" s="51">
+        <f>analysis_UPDATED_functions!D39</f>
         <v>0.93640000000000001</v>
       </c>
-      <c r="E32">
-        <f>analysis!F39</f>
-        <v>1011</v>
-      </c>
-      <c r="F32">
+      <c r="G32" s="32">
         <f>analysis!E39</f>
         <v>0.94</v>
       </c>
+      <c r="H32">
+        <f>E32/E30</f>
+        <v>1.4324324324324325</v>
+      </c>
+      <c r="I32">
+        <f>G32/G30</f>
+        <v>1.0021321961620469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>analysis!I40</f>
+        <v>xyzrgb_8_8_8</v>
+      </c>
+      <c r="B33">
+        <f>analysis!B40</f>
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <f>analysis!C40</f>
+        <v>6</v>
+      </c>
+      <c r="D33" s="8">
+        <f>analysis_UPDATED_functions!F40</f>
+        <v>589</v>
+      </c>
+      <c r="E33" s="8">
+        <f>analysis_UPDATED_functions!G40</f>
+        <v>209</v>
+      </c>
+      <c r="F33" s="9">
+        <f>analysis_UPDATED_functions!D40</f>
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="G33">
+        <f>analysis!E40</f>
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="32" t="str">
+        <f>analysis!I41</f>
+        <v>xyzrgb_16_16_16</v>
+      </c>
+      <c r="B34" s="32">
+        <f>analysis!B41</f>
+        <v>3</v>
+      </c>
+      <c r="C34" s="50">
+        <f>analysis!C41</f>
+        <v>6</v>
+      </c>
+      <c r="D34" s="32">
+        <f>analysis_UPDATED_functions!F41</f>
+        <v>585</v>
+      </c>
+      <c r="E34" s="32">
+        <f>analysis_UPDATED_functions!G41</f>
+        <v>673</v>
+      </c>
+      <c r="F34" s="51">
+        <f>analysis_UPDATED_functions!D41</f>
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="G34" s="32">
+        <f>analysis!E41</f>
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>analysis!I42</f>
+        <v>sdrgb_8_8_8</v>
+      </c>
+      <c r="B35">
+        <f>analysis!B42</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <f>analysis!C42</f>
+        <v>10</v>
+      </c>
+      <c r="D35" s="8">
+        <f>analysis_UPDATED_functions!F42</f>
+        <v>889</v>
+      </c>
+      <c r="E35" s="8">
+        <f>analysis_UPDATED_functions!G42</f>
+        <v>193</v>
+      </c>
+      <c r="F35" s="9">
+        <f>analysis_UPDATED_functions!D42</f>
+        <v>0.9506</v>
+      </c>
+      <c r="G35">
+        <f>analysis!E42</f>
+        <v>0.95250000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>analysis!I43</f>
+        <v>sdrgb_16_16_16</v>
+      </c>
+      <c r="B36">
+        <f>analysis!B43</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="7">
+        <f>analysis!C43</f>
+        <v>11</v>
+      </c>
+      <c r="D36" s="8">
+        <f>analysis_UPDATED_functions!F43</f>
+        <v>967</v>
+      </c>
+      <c r="E36" s="8">
+        <f>analysis_UPDATED_functions!G43</f>
+        <v>641</v>
+      </c>
+      <c r="F36" s="9">
+        <f>analysis_UPDATED_functions!D43</f>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="G36">
+        <f>analysis!E43</f>
+        <v>0.95250000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D32">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E32">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -48631,18 +53227,18 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="47"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
@@ -48673,7 +53269,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>analysis!I10</f>
-        <v>model_rgb_16</v>
+        <v>rgb_16</v>
       </c>
       <c r="B3">
         <f>analysis!B10</f>
@@ -48701,7 +53297,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>analysis!I11</f>
-        <v>model_rgb_16_32</v>
+        <v>rgb_16_32</v>
       </c>
       <c r="B4">
         <f>analysis!B11</f>
@@ -48729,7 +53325,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>analysis!I12</f>
-        <v>model_rgb_16_32_64</v>
+        <v>rgb_16_32_64</v>
       </c>
       <c r="B5">
         <f>analysis!B12</f>
@@ -48757,7 +53353,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>analysis!I13</f>
-        <v>model_rgb_16_32_64_128</v>
+        <v>rgb_16_32_64_128</v>
       </c>
       <c r="B6">
         <f>analysis!B13</f>
@@ -48785,7 +53381,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>analysis!I14</f>
-        <v>model_rgb_16_32_64_128_256</v>
+        <v>rgb_16_32_64_128_256</v>
       </c>
       <c r="B7">
         <f>analysis!B14</f>
@@ -48813,7 +53409,7 @@
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="str">
         <f>analysis!I15</f>
-        <v>model_rgb_16_32_64_128_256_512</v>
+        <v>rgb_16_32_64_128_256_512</v>
       </c>
       <c r="B8" s="32">
         <f>analysis!B15</f>
@@ -48841,7 +53437,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>analysis!I16</f>
-        <v>model_rgb_simple_16</v>
+        <v>rgb_simple_16</v>
       </c>
       <c r="B9">
         <f>analysis!B16</f>
@@ -48869,7 +53465,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>analysis!I17</f>
-        <v>model_rgb_simple_16_32</v>
+        <v>rgb_simple_16_32</v>
       </c>
       <c r="B10">
         <f>analysis!B17</f>
@@ -48897,7 +53493,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>analysis!I18</f>
-        <v>model_rgb_simple_16_32_64</v>
+        <v>rgb_simple_16_32_64</v>
       </c>
       <c r="B11">
         <f>analysis!B18</f>
@@ -48925,7 +53521,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>analysis!I19</f>
-        <v>model_rgb_simple_16_32_64_128</v>
+        <v>rgb_simple_16_32_64_128</v>
       </c>
       <c r="B12">
         <f>analysis!B19</f>
@@ -48953,7 +53549,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>analysis!I20</f>
-        <v>model_rgb_simple_16_32_64_128_256</v>
+        <v>rgb_simple_16_32_64_128_256</v>
       </c>
       <c r="B13">
         <f>analysis!B20</f>
@@ -48981,7 +53577,7 @@
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="str">
         <f>analysis!I21</f>
-        <v>model_rgb_simple_16_32_64_128_256_512</v>
+        <v>rgb_simple_16_32_64_128_256_512</v>
       </c>
       <c r="B14" s="32">
         <f>analysis!B21</f>
@@ -49201,7 +53797,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>analysis!I28</f>
-        <v>model_rgb_16_16</v>
+        <v>rgb_16_16</v>
       </c>
       <c r="B21">
         <f>analysis!B28</f>
@@ -49233,7 +53829,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>analysis!I29</f>
-        <v>model_rgb_simple_16_16</v>
+        <v>rgb_simple_16_16</v>
       </c>
       <c r="B22">
         <f>analysis!B29</f>
@@ -49265,7 +53861,7 @@
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="str">
         <f>analysis!I30</f>
-        <v>model_all_16_16</v>
+        <v>all_16_16</v>
       </c>
       <c r="B23" s="32">
         <f>analysis!B30</f>
@@ -49297,7 +53893,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>analysis!I31</f>
-        <v>model_rgb_16_16_16</v>
+        <v>rgb_16_16_16</v>
       </c>
       <c r="B24">
         <f>analysis!B31</f>
@@ -49329,7 +53925,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>analysis!I32</f>
-        <v>model_rgb_simple_16_16_16</v>
+        <v>rgb_simple_16_16_16</v>
       </c>
       <c r="B25">
         <f>analysis!B32</f>
@@ -49361,7 +53957,7 @@
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="str">
         <f>analysis!I33</f>
-        <v>model_all_16_16_16</v>
+        <v>all_16_16_16</v>
       </c>
       <c r="B26" s="32">
         <f>analysis!B33</f>
@@ -49393,7 +53989,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>analysis!I34</f>
-        <v>model_rgb_8_8</v>
+        <v>rgb_8_8</v>
       </c>
       <c r="B27">
         <f>analysis!B34</f>
@@ -49425,7 +54021,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>analysis!I35</f>
-        <v>model_rgb_simple_8_8</v>
+        <v>rgb_simple_8_8</v>
       </c>
       <c r="B28">
         <f>analysis!B35</f>
@@ -49457,7 +54053,7 @@
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="str">
         <f>analysis!I36</f>
-        <v>model_all_8_8</v>
+        <v>all_8_8</v>
       </c>
       <c r="B29" s="32">
         <f>analysis!B36</f>
@@ -49489,7 +54085,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>analysis!I37</f>
-        <v>model_rgb_8_8_8</v>
+        <v>rgb_8_8_8</v>
       </c>
       <c r="B30">
         <f>analysis!B37</f>
@@ -49521,7 +54117,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>analysis!I38</f>
-        <v>model_rgb_simple_8_8_8</v>
+        <v>rgb_simple_8_8_8</v>
       </c>
       <c r="B31">
         <f>analysis!B38</f>
@@ -49553,7 +54149,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>analysis!I39</f>
-        <v>model_all_8_8_8</v>
+        <v>all_8_8_8</v>
       </c>
       <c r="B32">
         <f>analysis!B39</f>
@@ -49633,20 +54229,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="H1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/misc/tables_and_other/ML_model_performance.xlsx
+++ b/misc/tables_and_other/ML_model_performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/pwernette_usgs_gov/Documents/GitHub/point_cloud_vegetation_filtering/misc/tables_and_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD01CF8C-7B0E-41FC-A8BC-D8C4A88E7CA7}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AF7D7C-180D-402E-A61D-998FC9412097}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="computing_cloud_metrics" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="133">
   <si>
     <t>Epochs</t>
   </si>
@@ -268,6 +267,177 @@
   <si>
     <t>Tunable Parameters</t>
   </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Number of Nodes per Layer</t>
+  </si>
+  <si>
+    <t>rgb_4</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>rgb_4_4</t>
+  </si>
+  <si>
+    <t>4, 4</t>
+  </si>
+  <si>
+    <t>rgb_8</t>
+  </si>
+  <si>
+    <t>rgb_8_8</t>
+  </si>
+  <si>
+    <t>8, 8</t>
+  </si>
+  <si>
+    <t>rgb_8_8_8</t>
+  </si>
+  <si>
+    <t>8, 8, 8</t>
+  </si>
+  <si>
+    <t>rgb_16</t>
+  </si>
+  <si>
+    <t>rgb_16_16</t>
+  </si>
+  <si>
+    <t>16, 16</t>
+  </si>
+  <si>
+    <t>rgb_16_16_16</t>
+  </si>
+  <si>
+    <t>16, 16, 16</t>
+  </si>
+  <si>
+    <t>rgb_16_32</t>
+  </si>
+  <si>
+    <t>16, 32</t>
+  </si>
+  <si>
+    <t>rgb_16_32_64</t>
+  </si>
+  <si>
+    <t>16, 32, 64</t>
+  </si>
+  <si>
+    <t>rgb_16_32_64_128</t>
+  </si>
+  <si>
+    <t>16, 32, 64, 128</t>
+  </si>
+  <si>
+    <t>rgb_16_32_64_128_256</t>
+  </si>
+  <si>
+    <t>16, 32, 64, 128, 256</t>
+  </si>
+  <si>
+    <t>rgb_16_32_64_128_256_512</t>
+  </si>
+  <si>
+    <t>16, 32, 64, 128, 256, 512</t>
+  </si>
+  <si>
+    <t>rgb_simple_4</t>
+  </si>
+  <si>
+    <t>RGB, ExR, ExG, ExB, ExGR</t>
+  </si>
+  <si>
+    <t>rgb_simple _4_4</t>
+  </si>
+  <si>
+    <t>rgb_simple _8</t>
+  </si>
+  <si>
+    <t>rgb_simple _8_8</t>
+  </si>
+  <si>
+    <t>rgb_simple _8_8_8</t>
+  </si>
+  <si>
+    <t>rgb_simple _16</t>
+  </si>
+  <si>
+    <t>rgb_simple _16_16</t>
+  </si>
+  <si>
+    <t>rgb_simple _16_16_16</t>
+  </si>
+  <si>
+    <t>rgb_simple _16_32</t>
+  </si>
+  <si>
+    <t>rgb_simple _16_32_64</t>
+  </si>
+  <si>
+    <t>rgb_simple _16_32_64_128</t>
+  </si>
+  <si>
+    <t>rgb_simple _16_32_64_128_256</t>
+  </si>
+  <si>
+    <t>rgb_simple _16_32_64_128_256_512</t>
+  </si>
+  <si>
+    <t>all_4</t>
+  </si>
+  <si>
+    <t>RGB, all vegetation indices</t>
+  </si>
+  <si>
+    <t>all _4_4</t>
+  </si>
+  <si>
+    <t>all _8</t>
+  </si>
+  <si>
+    <t>all _8_8</t>
+  </si>
+  <si>
+    <t>all _8_8_8</t>
+  </si>
+  <si>
+    <t>all _16</t>
+  </si>
+  <si>
+    <t>all _16_16</t>
+  </si>
+  <si>
+    <t>all _16_16_16</t>
+  </si>
+  <si>
+    <t>all _16_32</t>
+  </si>
+  <si>
+    <t>all _16_32_64</t>
+  </si>
+  <si>
+    <t>all _16_32_64_128</t>
+  </si>
+  <si>
+    <t>all _16_32_64_128_256</t>
+  </si>
+  <si>
+    <t>all _16_32_64_128_256_512</t>
+  </si>
+  <si>
+    <t>RGB, SD</t>
+  </si>
+  <si>
+    <t>RGB, XYZ</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +450,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +479,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -468,7 +651,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -565,6 +748,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -51780,10 +51973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB32AC5E-7D8B-4F66-BF44-89F0FAC2E2BF}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="M23" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51795,9 +51988,12 @@
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.77734375" style="65" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.21875" style="65" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>46</v>
       </c>
@@ -51814,7 +52010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="60"/>
       <c r="C2" s="48" t="s">
@@ -51832,8 +52028,17 @@
       <c r="G2" s="46" t="s">
         <v>1</v>
       </c>
+      <c r="T2" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="63" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>analysis!I10</f>
         <v>rgb_16</v>
@@ -51862,8 +52067,17 @@
         <f>analysis!E10</f>
         <v>0.9214</v>
       </c>
+      <c r="T3" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="64">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>analysis!I11</f>
         <v>rgb_16_32</v>
@@ -51904,8 +52118,17 @@
         <f>E8/E3</f>
         <v>2174.8271604938273</v>
       </c>
+      <c r="T4" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="64" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>analysis!I12</f>
         <v>rgb_16_32_64</v>
@@ -51942,8 +52165,17 @@
         <f t="shared" si="0"/>
         <v>1.7199999999999993E-2</v>
       </c>
+      <c r="T5" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" s="64">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>analysis!I13</f>
         <v>rgb_16_32_64_128</v>
@@ -51980,8 +52212,17 @@
         <f t="shared" si="0"/>
         <v>1.5199999999999991E-2</v>
       </c>
+      <c r="T6" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="64" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>analysis!I14</f>
         <v>rgb_16_32_64_128_256</v>
@@ -52018,8 +52259,17 @@
         <f t="shared" si="0"/>
         <v>1.7100000000000004E-2</v>
       </c>
+      <c r="T7" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="64" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="str">
         <f>analysis!I15</f>
         <v>rgb_16_32_64_128_256_512</v>
@@ -52056,8 +52306,17 @@
         <f t="shared" si="0"/>
         <v>1.749999999999996E-2</v>
       </c>
+      <c r="T8" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="64">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>analysis!I16</f>
         <v>rgb_simple_16</v>
@@ -52098,8 +52357,17 @@
         <f>G9-G3</f>
         <v>1.2999999999999678E-3</v>
       </c>
+      <c r="T9" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" s="64" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>analysis!I17</f>
         <v>rgb_simple_16_32</v>
@@ -52136,8 +52404,17 @@
         <f t="shared" ref="I10:I14" si="2">G10/G4-1</f>
         <v>2.2388059701494711E-3</v>
       </c>
+      <c r="T10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="64" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>analysis!I18</f>
         <v>rgb_simple_16_32_64</v>
@@ -52174,8 +52451,17 @@
         <f t="shared" si="2"/>
         <v>1.8112081823993265E-3</v>
       </c>
+      <c r="T11" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="U11" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11" s="64" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>analysis!I19</f>
         <v>rgb_simple_16_32_64_128</v>
@@ -52212,8 +52498,17 @@
         <f t="shared" si="2"/>
         <v>4.2707666026051694E-3</v>
       </c>
+      <c r="T12" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" s="64" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>analysis!I20</f>
         <v>rgb_simple_16_32_64_128_256</v>
@@ -52250,8 +52545,17 @@
         <f t="shared" si="2"/>
         <v>2.5572722429407779E-3</v>
       </c>
+      <c r="T13" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" s="64" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="str">
         <f>analysis!I21</f>
         <v>rgb_simple_16_32_64_128_256_512</v>
@@ -52288,8 +52592,17 @@
         <f t="shared" si="2"/>
         <v>2.0236446905954608E-3</v>
       </c>
+      <c r="T14" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" s="64" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>analysis!I22</f>
         <v>all_16</v>
@@ -52346,8 +52659,17 @@
         <f>G15-G3</f>
         <v>1.3900000000000023E-2</v>
       </c>
+      <c r="T15" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="U15" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="64" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>analysis!I23</f>
         <v>all_16_32</v>
@@ -52377,7 +52699,7 @@
         <v>0.94010000000000005</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H15:H19" si="3">E16/E4</f>
+        <f t="shared" ref="H16:H19" si="3">E16/E4</f>
         <v>1.249609984399376</v>
       </c>
       <c r="I16">
@@ -52400,8 +52722,17 @@
         <f t="shared" si="6"/>
         <v>2.1000000000001018E-3</v>
       </c>
+      <c r="T16" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="U16" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V16" s="64">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>analysis!I24</f>
         <v>all_16_32_64</v>
@@ -52454,8 +52785,17 @@
         <f t="shared" si="6"/>
         <v>1.5000000000000568E-3</v>
       </c>
+      <c r="T17" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="U17" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" s="64" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>analysis!I25</f>
         <v>all_16_32_64_128</v>
@@ -52508,8 +52848,17 @@
         <f t="shared" si="6"/>
         <v>4.7000000000000375E-3</v>
       </c>
+      <c r="T18" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V18" s="64">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>analysis!I26</f>
         <v>all_16_32_64_128_256</v>
@@ -52562,8 +52911,17 @@
         <f t="shared" si="6"/>
         <v>3.8000000000000256E-3</v>
       </c>
+      <c r="T19" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V19" s="64" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="str">
         <f>analysis!I27</f>
         <v>all_16_32_64_128_256_512</v>
@@ -52616,8 +52974,17 @@
         <f t="shared" si="6"/>
         <v>2.9000000000000137E-3</v>
       </c>
+      <c r="T20" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="U20" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V20" s="64" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>analysis!I28</f>
         <v>rgb_16_16</v>
@@ -52650,8 +53017,17 @@
         <f>G21-G27</f>
         <v>4.4100000000000028E-2</v>
       </c>
+      <c r="T21" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="U21" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V21" s="64">
+        <v>16</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>analysis!I29</f>
         <v>rgb_simple_16_16</v>
@@ -52684,8 +53060,17 @@
         <f t="shared" ref="J22:J23" si="7">G22-G28</f>
         <v>1.3999999999999568E-3</v>
       </c>
+      <c r="T22" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="U22" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V22" s="64" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="str">
         <f>analysis!I30</f>
         <v>all_16_16</v>
@@ -52726,8 +53111,17 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000458E-3</v>
       </c>
+      <c r="T23" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="U23" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V23" s="64" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>analysis!I31</f>
         <v>rgb_16_16_16</v>
@@ -52760,8 +53154,17 @@
         <f>G24-G30</f>
         <v>8.0000000000002292E-4</v>
       </c>
+      <c r="T24" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="U24" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V24" s="64" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>analysis!I32</f>
         <v>rgb_simple_16_16_16</v>
@@ -52802,8 +53205,17 @@
         <f>P26-P27</f>
         <v>4.5900000000000052E-2</v>
       </c>
+      <c r="T25" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="U25" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V25" s="64" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="str">
         <f>analysis!I33</f>
         <v>all_16_16_16</v>
@@ -52860,8 +53272,17 @@
         <f>MAX(G21:G32)</f>
         <v>0.94040000000000001</v>
       </c>
+      <c r="T26" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="U26" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V26" s="64" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>analysis!I34</f>
         <v>rgb_8_8</v>
@@ -52898,8 +53319,17 @@
         <f>MIN(G21:G32)</f>
         <v>0.89449999999999996</v>
       </c>
+      <c r="T27" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="U27" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V27" s="64" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>analysis!I35</f>
         <v>rgb_simple_8_8</v>
@@ -52928,8 +53358,17 @@
         <f>analysis!E35</f>
         <v>0.93859999999999999</v>
       </c>
+      <c r="T28" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="U28" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="V28" s="64" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="str">
         <f>analysis!I36</f>
         <v>all_8_8</v>
@@ -52974,8 +53413,17 @@
         <f>G36-G24</f>
         <v>1.3700000000000045E-2</v>
       </c>
+      <c r="T29" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="U29" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V29" s="64">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>analysis!I37</f>
         <v>rgb_8_8_8</v>
@@ -53004,8 +53452,17 @@
         <f>analysis!E37</f>
         <v>0.93799999999999994</v>
       </c>
+      <c r="T30" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="U30" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V30" s="64" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>analysis!I38</f>
         <v>rgb_simple_8_8_8</v>
@@ -53034,8 +53491,17 @@
         <f>analysis!E38</f>
         <v>0.94020000000000004</v>
       </c>
+      <c r="T31" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="U31" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V31" s="64">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="str">
         <f>analysis!I39</f>
         <v>all_8_8_8</v>
@@ -53072,8 +53538,17 @@
         <f>G32/G30</f>
         <v>1.0021321961620469</v>
       </c>
+      <c r="T32" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="U32" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V32" s="64" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>analysis!I40</f>
         <v>xyzrgb_8_8_8</v>
@@ -53102,8 +53577,17 @@
         <f>analysis!E40</f>
         <v>0.50029999999999997</v>
       </c>
+      <c r="T33" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="U33" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V33" s="64" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="str">
         <f>analysis!I41</f>
         <v>xyzrgb_16_16_16</v>
@@ -53132,8 +53616,17 @@
         <f>analysis!E41</f>
         <v>0.50029999999999997</v>
       </c>
+      <c r="T34" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="U34" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V34" s="64">
+        <v>16</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>analysis!I42</f>
         <v>sdrgb_8_8_8</v>
@@ -53162,8 +53655,17 @@
         <f>analysis!E42</f>
         <v>0.95250000000000001</v>
       </c>
+      <c r="T35" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="U35" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V35" s="64" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>analysis!I43</f>
         <v>sdrgb_16_16_16</v>
@@ -53191,6 +53693,114 @@
       <c r="G36">
         <f>analysis!E43</f>
         <v>0.95250000000000001</v>
+      </c>
+      <c r="T36" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="U36" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V36" s="64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T37" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="U37" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V37" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T38" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="U38" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V38" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T39" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="U39" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V39" s="64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T40" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="U40" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V40" s="64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T41" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="U41" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="V41" s="64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T42" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="U42" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="V42" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T43" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="U43" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="V43" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T44" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="U44" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="V44" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T45" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="U45" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="V45" s="62" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/misc/tables_and_other/ML_model_performance.xlsx
+++ b/misc/tables_and_other/ML_model_performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\werne\GitHub\point_cloud_vegetation_filtering\misc\tables_and_other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6671494b26eed502/Documents/GitHub/point_cloud_vegetation_filtering/misc/tables_and_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA147A-C41E-4D84-A055-FE4E0D1E7874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{0DDA147A-C41E-4D84-A055-FE4E0D1E7874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACC6D2FA-9823-4E9A-A5C6-FBEE8B22B54F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="classification_analysis" sheetId="3" r:id="rId4"/>
     <sheet name="computing_cloud_metrics" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,11 +486,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -691,14 +691,14 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -718,16 +718,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,6 +762,7 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,7 +790,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -42504,9 +42504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -42544,7 +42544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -42650,7 +42650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -42792,7 +42792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -42802,61 +42802,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6A66E-88A0-4AD5-8234-0F09C8AD5240}">
   <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.41796875" customWidth="1"/>
-    <col min="4" max="4" width="14.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.89453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1015625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1015625" customWidth="1"/>
-    <col min="21" max="21" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.41796875" style="15" customWidth="1"/>
-    <col min="24" max="24" width="9.1015625" style="15"/>
-    <col min="25" max="25" width="14.89453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.3125" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.1015625" style="15"/>
-    <col min="28" max="28" width="12.3125" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.3125" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.5234375" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.1015625" style="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.89453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.3125" style="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.1015625" style="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.3125" style="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="9.1015625" style="15"/>
-    <col min="40" max="40" width="11.1015625" style="15" customWidth="1"/>
-    <col min="41" max="41" width="9.1015625" style="15"/>
-    <col min="42" max="42" width="12.3125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.08984375" customWidth="1"/>
+    <col min="21" max="21" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.453125" style="15" customWidth="1"/>
+    <col min="24" max="24" width="9.08984375" style="15"/>
+    <col min="25" max="25" width="14.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.08984375" style="15"/>
+    <col min="28" max="28" width="12.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="9.08984375" style="15"/>
+    <col min="40" max="40" width="11.08984375" style="15" customWidth="1"/>
+    <col min="41" max="41" width="9.08984375" style="15"/>
+    <col min="42" max="42" width="12.26953125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="33">
         <v>0.88724999999999998</v>
       </c>
@@ -42866,12 +42866,12 @@
       <c r="H2" s="34"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="33">
         <v>2.8186100000000001</v>
       </c>
@@ -42881,7 +42881,7 @@
       <c r="H3" s="34"/>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -42894,13 +42894,13 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -42928,7 +42928,7 @@
         <v>-4.07676 +/- 3.15798</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -42956,29 +42956,29 @@
         <v>2.49867 +/- 2.31663</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
       <c r="W8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AE8" s="50" t="s">
+      <c r="AE8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -43062,7 +43062,7 @@
         <v>Total Params</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -43088,12 +43088,12 @@
         <f>SUBSTITUTE(AD10,"model_","")</f>
         <v>rgb_16</v>
       </c>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
       <c r="W10" s="16">
         <v>1</v>
       </c>
@@ -43118,14 +43118,14 @@
       <c r="AD10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AM10" s="50" t="s">
+      <c r="AM10" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -43206,7 +43206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -43295,7 +43295,7 @@
         <v>155.66666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -43384,7 +43384,7 @@
         <v>715.66666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -43473,7 +43473,7 @@
         <v>2859.6666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>6</v>
       </c>
@@ -43602,7 +43602,7 @@
         <v>11243.666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>1</v>
       </c>
@@ -43701,7 +43701,7 @@
         <v>44395.666666666664</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -43800,7 +43800,7 @@
         <v>176235.66666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -43861,7 +43861,7 @@
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>4</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>5</v>
       </c>
@@ -44059,7 +44059,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
         <v>6</v>
       </c>
@@ -44188,7 +44188,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>1</v>
       </c>
@@ -44245,7 +44245,7 @@
       <c r="AH22" s="24"/>
       <c r="AI22" s="24"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>2</v>
       </c>
@@ -44302,7 +44302,7 @@
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>3</v>
       </c>
@@ -44359,7 +44359,7 @@
       <c r="AH24" s="24"/>
       <c r="AI24" s="24"/>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>4</v>
       </c>
@@ -44416,7 +44416,7 @@
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>5</v>
       </c>
@@ -44473,7 +44473,7 @@
       <c r="AH26" s="24"/>
       <c r="AI26" s="24"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B27" s="9">
         <v>6</v>
       </c>
@@ -44564,7 +44564,7 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>2</v>
       </c>
@@ -44621,7 +44621,7 @@
       <c r="AH28" s="24"/>
       <c r="AI28" s="24"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>2</v>
       </c>
@@ -44678,7 +44678,7 @@
       <c r="AH29" s="24"/>
       <c r="AI29" s="24"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B30" s="9">
         <v>2</v>
       </c>
@@ -44769,7 +44769,7 @@
         <v>427.66666666666669</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <v>3</v>
       </c>
@@ -44826,7 +44826,7 @@
       <c r="AH31" s="24"/>
       <c r="AI31" s="24"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>3</v>
       </c>
@@ -44883,7 +44883,7 @@
       <c r="AH32" s="24"/>
       <c r="AI32" s="24"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B33" s="9">
         <v>3</v>
       </c>
@@ -44974,7 +44974,7 @@
         <v>699.66666666666663</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>2</v>
       </c>
@@ -45031,7 +45031,7 @@
       <c r="AH34" s="24"/>
       <c r="AI34" s="24"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>2</v>
       </c>
@@ -45088,7 +45088,7 @@
       <c r="AH35" s="24"/>
       <c r="AI35" s="24"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B36" s="9">
         <v>2</v>
       </c>
@@ -45179,7 +45179,7 @@
         <v>150.33333333333334</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <v>3</v>
       </c>
@@ -45236,7 +45236,7 @@
       <c r="AH37" s="24"/>
       <c r="AI37" s="24"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>3</v>
       </c>
@@ -45293,7 +45293,7 @@
       <c r="AH38" s="24"/>
       <c r="AI38" s="24"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B39" s="9">
         <v>3</v>
       </c>
@@ -45384,7 +45384,7 @@
         <v>222.33333333333334</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>3</v>
       </c>
@@ -45428,7 +45428,7 @@
       <c r="AH40" s="24"/>
       <c r="AI40" s="24"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B41" s="9">
         <v>3</v>
       </c>
@@ -45487,7 +45487,7 @@
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>3</v>
       </c>
@@ -45531,7 +45531,7 @@
       <c r="AH42" s="24"/>
       <c r="AI42" s="24"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B43" s="9">
         <v>3</v>
       </c>
@@ -45601,6 +45601,18 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
+  <conditionalFormatting sqref="D10:D39">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F10:F39">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -45610,18 +45622,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D39">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -45659,37 +45659,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9EEADE-EB92-49D2-AC21-19FD28E12729}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="C117" workbookViewId="0">
+      <selection activeCell="N130" sqref="N130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.41796875" customWidth="1"/>
-    <col min="4" max="4" width="14.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.89453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1015625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1015625" customWidth="1"/>
-    <col min="21" max="21" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.08984375" customWidth="1"/>
+    <col min="21" max="21" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="J1" t="s">
         <v>67</v>
       </c>
@@ -45700,12 +45700,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="33">
         <v>0.88724999999999998</v>
       </c>
@@ -45722,12 +45722,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="33">
         <v>2.8186100000000001</v>
       </c>
@@ -45744,7 +45744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -45757,11 +45757,11 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
       <c r="J4">
         <v>3</v>
       </c>
@@ -45770,7 +45770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -45805,7 +45805,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -45840,7 +45840,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="J7">
         <v>6</v>
       </c>
@@ -45849,19 +45849,19 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -45907,7 +45907,7 @@
         <v>Total Params</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>16</v>
       </c>
@@ -45935,14 +45935,14 @@
       <c r="I10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>A10+16*POWER(2,B11-1)</f>
         <v>48</v>
@@ -45987,7 +45987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" ref="A12:A15" si="2">A11+16*POWER(2,B12-1)</f>
         <v>112</v>
@@ -46036,7 +46036,7 @@
         <v>155.66666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -46085,7 +46085,7 @@
         <v>715.66666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>496</v>
@@ -46134,7 +46134,7 @@
         <v>2859.6666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>1008</v>
@@ -46203,7 +46203,7 @@
         <v>11243.666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -46256,7 +46256,7 @@
         <v>44395.666666666664</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>A16+16*POWER(2,B17-1)</f>
         <v>48</v>
@@ -46310,7 +46310,7 @@
         <v>176235.66666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" ref="A18:A21" si="8">A17+16*POWER(2,B18-1)</f>
         <v>112</v>
@@ -46345,7 +46345,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="8"/>
         <v>240</v>
@@ -46399,7 +46399,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="8"/>
         <v>496</v>
@@ -46453,7 +46453,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="8"/>
         <v>1008</v>
@@ -46522,7 +46522,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>16</v>
       </c>
@@ -46554,7 +46554,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>A22+16*POWER(2,B23-1)</f>
         <v>48</v>
@@ -46587,7 +46587,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ref="A24:A27" si="12">A23+16*POWER(2,B24-1)</f>
         <v>112</v>
@@ -46620,7 +46620,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="12"/>
         <v>240</v>
@@ -46653,7 +46653,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="12"/>
         <v>496</v>
@@ -46686,7 +46686,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="12"/>
         <v>1008</v>
@@ -46736,7 +46736,7 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>16*B28</f>
         <v>32</v>
@@ -46769,7 +46769,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ref="A29:A33" si="14">16*B29</f>
         <v>32</v>
@@ -46802,7 +46802,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="14"/>
         <v>32</v>
@@ -46852,7 +46852,7 @@
         <v>427.66666666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>16*B31</f>
         <v>48</v>
@@ -46885,7 +46885,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -46918,7 +46918,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -46968,7 +46968,7 @@
         <v>699.66666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>8*B34</f>
         <v>16</v>
@@ -47001,7 +47001,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ref="A35:A42" si="17">8*B35</f>
         <v>16</v>
@@ -47034,7 +47034,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="17"/>
         <v>16</v>
@@ -47084,7 +47084,7 @@
         <v>150.33333333333334</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="17"/>
         <v>24</v>
@@ -47117,7 +47117,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="17"/>
         <v>24</v>
@@ -47150,7 +47150,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="17"/>
         <v>24</v>
@@ -47200,7 +47200,7 @@
         <v>222.33333333333334</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="17"/>
         <v>24</v>
@@ -47235,7 +47235,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ref="A41" si="20">16*B41</f>
         <v>48</v>
@@ -47285,7 +47285,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="17"/>
         <v>24</v>
@@ -47320,7 +47320,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" ref="A43" si="21">16*B43</f>
         <v>48</v>
@@ -47370,15 +47370,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="58">
+      <c r="D44" s="49">
         <f>AVERAGE(D10:D43)</f>
         <v>0.90956470588235305</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="49">
         <f>AVERAGE(E10:E43)</f>
         <v>0.91212647058823537</v>
       </c>
@@ -47388,7 +47388,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -47404,6 +47404,18 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J8:N8"/>
   </mergeCells>
+  <conditionalFormatting sqref="D10:D39">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F10:F39">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -47413,18 +47425,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D39">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -47439,43 +47439,43 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.68359375" customWidth="1"/>
-    <col min="6" max="6" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.7890625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.20703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
+    <row r="2" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>0</v>
       </c>
@@ -47501,7 +47501,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>analysis!I10</f>
         <v>rgb_16</v>
@@ -47540,7 +47540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>analysis!I11</f>
         <v>rgb_16_32</v>
@@ -47591,7 +47591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>analysis!I12</f>
         <v>rgb_16_32_64</v>
@@ -47638,7 +47638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>analysis!I13</f>
         <v>rgb_16_32_64_128</v>
@@ -47685,7 +47685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>analysis!I14</f>
         <v>rgb_16_32_64_128_256</v>
@@ -47732,7 +47732,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="30" t="str">
         <f>analysis!I15</f>
         <v>rgb_16_32_64_128_256_512</v>
@@ -47779,7 +47779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>analysis!I16</f>
         <v>rgb_simple_16</v>
@@ -47830,7 +47830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>analysis!I17</f>
         <v>rgb_simple_16_32</v>
@@ -47877,7 +47877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>analysis!I18</f>
         <v>rgb_simple_16_32_64</v>
@@ -47924,7 +47924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>analysis!I19</f>
         <v>rgb_simple_16_32_64_128</v>
@@ -47971,7 +47971,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>analysis!I20</f>
         <v>rgb_simple_16_32_64_128_256</v>
@@ -48018,7 +48018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="str">
         <f>analysis!I21</f>
         <v>rgb_simple_16_32_64_128_256_512</v>
@@ -48065,7 +48065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>analysis!I22</f>
         <v>all_16</v>
@@ -48132,7 +48132,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>analysis!I23</f>
         <v>all_16_32</v>
@@ -48195,7 +48195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>analysis!I24</f>
         <v>all_16_32_64</v>
@@ -48258,7 +48258,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>analysis!I25</f>
         <v>all_16_32_64_128</v>
@@ -48321,7 +48321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>analysis!I26</f>
         <v>all_16_32_64_128_256</v>
@@ -48384,7 +48384,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="30" t="str">
         <f>analysis!I27</f>
         <v>all_16_32_64_128_256_512</v>
@@ -48447,7 +48447,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>analysis!I28</f>
         <v>rgb_16_16</v>
@@ -48490,7 +48490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>analysis!I29</f>
         <v>rgb_simple_16_16</v>
@@ -48533,7 +48533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="30" t="str">
         <f>analysis!I30</f>
         <v>all_16_16</v>
@@ -48584,7 +48584,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>analysis!I31</f>
         <v>rgb_16_16_16</v>
@@ -48627,7 +48627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>analysis!I32</f>
         <v>rgb_simple_16_16_16</v>
@@ -48678,7 +48678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="str">
         <f>analysis!I33</f>
         <v>all_16_16_16</v>
@@ -48745,7 +48745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>analysis!I34</f>
         <v>rgb_8_8</v>
@@ -48792,7 +48792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>analysis!I35</f>
         <v>rgb_simple_8_8</v>
@@ -48831,7 +48831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="30" t="str">
         <f>analysis!I36</f>
         <v>all_8_8</v>
@@ -48886,7 +48886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>analysis!I37</f>
         <v>rgb_8_8_8</v>
@@ -48925,7 +48925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>analysis!I38</f>
         <v>rgb_simple_8_8_8</v>
@@ -48964,7 +48964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="30" t="str">
         <f>analysis!I39</f>
         <v>all_8_8_8</v>
@@ -49011,7 +49011,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>analysis!I40</f>
         <v>xyzrgb_8_8_8</v>
@@ -49050,7 +49050,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="30" t="str">
         <f>analysis!I41</f>
         <v>xyzrgb_16_16_16</v>
@@ -49089,7 +49089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>analysis!I42</f>
         <v>sdrgb_8_8_8</v>
@@ -49128,7 +49128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>analysis!I43</f>
         <v>sdrgb_16_16_16</v>
@@ -49167,7 +49167,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T37" s="42" t="s">
         <v>126</v>
       </c>
@@ -49178,7 +49178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T38" s="42" t="s">
         <v>127</v>
       </c>
@@ -49189,7 +49189,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T39" s="42" t="s">
         <v>128</v>
       </c>
@@ -49200,7 +49200,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T40" s="42" t="s">
         <v>129</v>
       </c>
@@ -49211,7 +49211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T41" s="42" t="s">
         <v>130</v>
       </c>
@@ -49222,7 +49222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T42" s="42" t="s">
         <v>73</v>
       </c>
@@ -49233,7 +49233,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T43" s="40" t="s">
         <v>74</v>
       </c>
@@ -49244,7 +49244,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T44" s="40" t="s">
         <v>71</v>
       </c>
@@ -49255,7 +49255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="T45" s="40" t="s">
         <v>72</v>
       </c>
@@ -49285,35 +49285,35 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>46</v>
       </c>
@@ -49339,7 +49339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>analysis!I10</f>
         <v>rgb_16</v>
@@ -49367,7 +49367,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>analysis!I11</f>
         <v>rgb_16_32</v>
@@ -49395,7 +49395,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>analysis!I12</f>
         <v>rgb_16_32_64</v>
@@ -49423,7 +49423,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>analysis!I13</f>
         <v>rgb_16_32_64_128</v>
@@ -49451,7 +49451,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>analysis!I14</f>
         <v>rgb_16_32_64_128_256</v>
@@ -49479,7 +49479,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="30" t="str">
         <f>analysis!I15</f>
         <v>rgb_16_32_64_128_256_512</v>
@@ -49507,7 +49507,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>analysis!I16</f>
         <v>rgb_simple_16</v>
@@ -49535,7 +49535,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>analysis!I17</f>
         <v>rgb_simple_16_32</v>
@@ -49563,7 +49563,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>analysis!I18</f>
         <v>rgb_simple_16_32_64</v>
@@ -49591,7 +49591,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>analysis!I19</f>
         <v>rgb_simple_16_32_64_128</v>
@@ -49619,7 +49619,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>analysis!I20</f>
         <v>rgb_simple_16_32_64_128_256</v>
@@ -49647,7 +49647,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="str">
         <f>analysis!I21</f>
         <v>rgb_simple_16_32_64_128_256_512</v>
@@ -49675,7 +49675,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>analysis!I22</f>
         <v>all_16</v>
@@ -49707,7 +49707,7 @@
         <v>52131820</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>analysis!I23</f>
         <v>all_16_32</v>
@@ -49739,7 +49739,7 @@
         <v>57493581</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>analysis!I24</f>
         <v>all_16_32_64</v>
@@ -49771,7 +49771,7 @@
         <v>57787109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>analysis!I25</f>
         <v>all_16_32_64_128</v>
@@ -49803,7 +49803,7 @@
         <v>59336771</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>analysis!I26</f>
         <v>all_16_32_64_128_256</v>
@@ -49835,7 +49835,7 @@
         <v>59879060</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="30" t="str">
         <f>analysis!I27</f>
         <v>all_16_32_64_128_256_512</v>
@@ -49867,7 +49867,7 @@
         <v>59699547</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>analysis!I28</f>
         <v>rgb_16_16</v>
@@ -49899,7 +49899,7 @@
         <v>57665739</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>analysis!I29</f>
         <v>rgb_simple_16_16</v>
@@ -49931,7 +49931,7 @@
         <v>58200965</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="30" t="str">
         <f>analysis!I30</f>
         <v>all_16_16</v>
@@ -49963,7 +49963,7 @@
         <v>58251287</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>analysis!I31</f>
         <v>rgb_16_16_16</v>
@@ -49995,7 +49995,7 @@
         <v>61569343</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>analysis!I32</f>
         <v>rgb_simple_16_16_16</v>
@@ -50027,7 +50027,7 @@
         <v>58463719</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="str">
         <f>analysis!I33</f>
         <v>all_16_16_16</v>
@@ -50059,7 +50059,7 @@
         <v>59446486</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>analysis!I34</f>
         <v>rgb_8_8</v>
@@ -50091,7 +50091,7 @@
         <v>58230524</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>analysis!I35</f>
         <v>rgb_simple_8_8</v>
@@ -50123,7 +50123,7 @@
         <v>55678593</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="30" t="str">
         <f>analysis!I36</f>
         <v>all_8_8</v>
@@ -50155,7 +50155,7 @@
         <v>59376311</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>analysis!I37</f>
         <v>rgb_8_8_8</v>
@@ -50187,7 +50187,7 @@
         <v>63413350</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>analysis!I38</f>
         <v>rgb_simple_8_8_8</v>
@@ -50219,7 +50219,7 @@
         <v>57954872</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>analysis!I39</f>
         <v>all_8_8_8</v>
@@ -50293,31 +50293,31 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="H1" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -50331,7 +50331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>250000</v>
       </c>
@@ -50345,7 +50345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>500000</v>
       </c>
@@ -50367,7 +50367,7 @@
         <v>2.0277777777777777</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>750000</v>
       </c>
@@ -50397,7 +50397,7 @@
         <v>3.0555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1000000</v>
       </c>
@@ -50435,25 +50435,25 @@
         <v>4.0555555555555554</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G24" s="32">
         <f t="shared" ref="G24:G26" si="2">I3/B3</f>
         <v>0.13090909090909092</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G25" s="32">
         <f t="shared" si="2"/>
         <v>0.12351945854483926</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G26" s="32">
         <f t="shared" si="2"/>
         <v>0.1206140350877193</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G27" s="32">
         <f>I6/B6</f>
         <v>0.12279226240538267</v>
